--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_17.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>526221.7347572964</v>
+        <v>516556.0087818061</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7765049.281621778</v>
+        <v>7765049.281621786</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6187346.75695111</v>
+        <v>6187346.756951106</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7706648.742648313</v>
+        <v>7647353.008089203</v>
       </c>
     </row>
     <row r="11">
@@ -659,16 +661,16 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>208.5521144333624</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -707,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>137.979237339074</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -826,16 +828,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>106.9706214097031</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>65.31383608752321</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +898,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>14.02439290772429</v>
+        <v>11.59887434363629</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -1051,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>266.2723283900668</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>180.6077930059085</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>403.2658873081456</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>202.3791781619709</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I9" t="n">
-        <v>20.54110546596236</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1294,10 +1296,10 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>94.35048654214715</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1342,22 +1344,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>106.9706214097031</v>
       </c>
       <c r="W10" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1373,13 +1375,13 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1421,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>132.3751831670814</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1433,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>6.338580986754886</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -1534,10 +1536,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>50.61039643672363</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
         <v>237.1532516330649</v>
@@ -1591,10 +1593,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>180.6077930059085</v>
       </c>
     </row>
     <row r="14">
@@ -1607,25 +1609,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>140.2277898563341</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>192.2300390553507</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -1765,25 +1767,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>166.7165542762729</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>213.5952110672383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>400.41929060787</v>
@@ -1853,13 +1855,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>11.36057336725538</v>
       </c>
       <c r="G17" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
         <v>85.48824505609757</v>
@@ -1910,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>319.2556088537966</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1999,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>49.63779166869811</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2053,22 +2055,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>137.8797272855244</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>187.232178558179</v>
       </c>
       <c r="F20" t="n">
         <v>416.8201079258493</v>
@@ -2096,10 +2098,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>364.6399937545928</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -2248,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>108.642412017077</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>213.595211067239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2327,16 +2329,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>367.6236394854355</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>96.0851398248662</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
         <v>219.9844192126098</v>
@@ -2476,22 +2478,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>96.94188529208247</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
@@ -2542,7 +2544,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>213.595211067239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2564,7 +2566,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>404.6410012660961</v>
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>108.2642464846189</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>165.9184445944652</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>213.5952110672386</v>
+        <v>65.31383608752344</v>
       </c>
     </row>
     <row r="29">
@@ -2798,19 +2800,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>53.20093248929918</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>282.1353944293379</v>
       </c>
       <c r="G29" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2947,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>159.3017069803637</v>
@@ -2968,7 +2970,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>44.74588807992552</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>70.01651234184556</v>
       </c>
     </row>
     <row r="32">
@@ -3041,13 +3043,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>254.489886823085</v>
@@ -3089,7 +3091,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>291.3512556275626</v>
       </c>
       <c r="X32" t="n">
         <v>396.636963852737</v>
@@ -3187,7 +3189,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>112.3157924738356</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
         <v>157.8996982303191</v>
@@ -3202,10 +3204,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3241,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.1752290868141</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3250,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3281,10 +3283,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>84.73179601342665</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,10 +3319,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>165.9184445944652</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>42.06634033324911</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>157.8996982303191</v>
@@ -3442,7 +3444,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3481,13 +3483,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>27.35334490128957</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>222.4883416251229</v>
@@ -3509,7 +3511,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>314.0518665500862</v>
       </c>
       <c r="F38" t="n">
         <v>416.8201079258493</v>
@@ -3521,7 +3523,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>39.64108301376439</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3560,13 +3562,13 @@
         <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
         <v>396.9273063213908</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>56.9322492007439</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3667,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3715,7 +3717,7 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
@@ -3724,10 +3726,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>227.0672929610291</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3740,25 +3742,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>373.736032213064</v>
       </c>
       <c r="D41" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>367.6236394854355</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3895,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>70.36042284486132</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3949,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>279.9701659793371</v>
@@ -3964,7 +3966,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>213.5952110672386</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>31.72385070910551</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>59.82422708687632</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
         <v>219.9844192126098</v>
@@ -4141,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>136.1769805884545</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>271.0770354214525</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>662.5483777641728</v>
+        <v>1281.599643065957</v>
       </c>
       <c r="C2" t="n">
-        <v>252.4237870774429</v>
+        <v>1281.599643065957</v>
       </c>
       <c r="D2" t="n">
-        <v>252.4237870774429</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="E2" t="n">
-        <v>41.76508562960205</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="F2" t="n">
         <v>41.76508562960205</v>
@@ -4328,52 +4330,52 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K2" t="n">
-        <v>295.9505570973564</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L2" t="n">
-        <v>537.7254774811266</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="M2" t="n">
-        <v>1054.568412147452</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="N2" t="n">
-        <v>1054.568412147452</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="O2" t="n">
-        <v>1571.411346813777</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="P2" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q2" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U2" t="n">
-        <v>1473.706230480572</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="V2" t="n">
-        <v>1473.706230480572</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="W2" t="n">
-        <v>1473.706230480572</v>
+        <v>1691.820822730447</v>
       </c>
       <c r="X2" t="n">
-        <v>1473.706230480572</v>
+        <v>1691.820822730447</v>
       </c>
       <c r="Y2" t="n">
-        <v>1072.769557428662</v>
+        <v>1691.820822730447</v>
       </c>
     </row>
     <row r="3">
@@ -4407,25 +4409,25 @@
         <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>234.5779431922355</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="K3" t="n">
-        <v>690.3841994575342</v>
+        <v>497.571341894901</v>
       </c>
       <c r="L3" t="n">
-        <v>690.3841994575342</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M3" t="n">
-        <v>690.3841994575342</v>
+        <v>1531.257211227552</v>
       </c>
       <c r="N3" t="n">
-        <v>690.3841994575342</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="O3" t="n">
-        <v>1207.22713412386</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="P3" t="n">
-        <v>1708.850297433489</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q3" t="n">
         <v>2058.694762117472</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>533.263917876656</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C4" t="n">
-        <v>362.1705454383725</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D4" t="n">
-        <v>202.6759007612826</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E4" t="n">
-        <v>41.76508562960205</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F4" t="n">
-        <v>41.76508562960205</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G4" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H4" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4513,25 +4515,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1571.163982250452</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T4" t="n">
-        <v>1571.163982250452</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="U4" t="n">
-        <v>1571.163982250452</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="V4" t="n">
-        <v>1463.112849513378</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="W4" t="n">
-        <v>1184.043185022252</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="X4" t="n">
-        <v>945.6993228819357</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="Y4" t="n">
-        <v>720.9636242707004</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1704.493980615271</v>
+        <v>1286.674210597145</v>
       </c>
       <c r="C5" t="n">
-        <v>1704.493980615271</v>
+        <v>876.5496199104149</v>
       </c>
       <c r="D5" t="n">
-        <v>1300.030050708331</v>
+        <v>876.5496199104149</v>
       </c>
       <c r="E5" t="n">
-        <v>885.6898352252281</v>
+        <v>462.2094044273116</v>
       </c>
       <c r="F5" t="n">
-        <v>464.6594231789156</v>
+        <v>462.2094044273116</v>
       </c>
       <c r="G5" t="n">
-        <v>55.93113907174779</v>
+        <v>53.48112032014376</v>
       </c>
       <c r="H5" t="n">
         <v>41.76508562960205</v>
@@ -4565,28 +4567,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>216.5644706858345</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L5" t="n">
-        <v>733.4074053521598</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M5" t="n">
-        <v>733.4074053521598</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="N5" t="n">
-        <v>733.4074053521598</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="O5" t="n">
-        <v>1250.250340018485</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="P5" t="n">
-        <v>1767.09327468481</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q5" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
@@ -4604,13 +4606,13 @@
         <v>2088.254281480102</v>
       </c>
       <c r="W5" t="n">
-        <v>1704.493980615271</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X5" t="n">
-        <v>1704.493980615271</v>
+        <v>1687.610883649055</v>
       </c>
       <c r="Y5" t="n">
-        <v>1704.493980615271</v>
+        <v>1286.674210597145</v>
       </c>
     </row>
     <row r="6">
@@ -4647,22 +4649,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K6" t="n">
-        <v>497.5713418949007</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L6" t="n">
-        <v>1014.414276561226</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M6" t="n">
-        <v>1014.414276561226</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="N6" t="n">
-        <v>1014.414276561226</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="O6" t="n">
-        <v>1221.566882129793</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P6" t="n">
-        <v>1738.409816796118</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q6" t="n">
         <v>2088.254281480102</v>
@@ -4699,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>372.3531027449756</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C7" t="n">
-        <v>201.259730306692</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D7" t="n">
         <v>41.76508562960205</v>
@@ -4747,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S7" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T7" t="n">
-        <v>1571.163982250452</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U7" t="n">
-        <v>1302.202034381698</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V7" t="n">
-        <v>1302.202034381698</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W7" t="n">
-        <v>1023.132369890572</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="X7" t="n">
-        <v>784.7885077502552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="Y7" t="n">
-        <v>560.0528091390199</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1678.033101815613</v>
+        <v>946.9697231064266</v>
       </c>
       <c r="C8" t="n">
-        <v>1267.908511128883</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="D8" t="n">
-        <v>863.4445812219433</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="E8" t="n">
-        <v>449.10436573884</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="F8" t="n">
-        <v>449.10436573884</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I8" t="n">
         <v>41.76508562960205</v>
@@ -4808,13 +4810,13 @@
         <v>41.76508562960205</v>
       </c>
       <c r="L8" t="n">
-        <v>537.7254774811266</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M8" t="n">
-        <v>1054.568412147452</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N8" t="n">
-        <v>1571.411346813777</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O8" t="n">
         <v>2088.254281480102</v>
@@ -4829,25 +4831,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V8" t="n">
-        <v>2088.254281480102</v>
+        <v>1748.549793989384</v>
       </c>
       <c r="W8" t="n">
-        <v>2088.254281480102</v>
+        <v>1748.549793989384</v>
       </c>
       <c r="X8" t="n">
-        <v>2088.254281480102</v>
+        <v>1347.906396158337</v>
       </c>
       <c r="Y8" t="n">
-        <v>2088.254281480102</v>
+        <v>946.9697231064266</v>
       </c>
     </row>
     <row r="9">
@@ -4860,7 +4862,7 @@
         <v>720.5959275161366</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D9" t="n">
         <v>469.7036984844747</v>
@@ -4869,40 +4871,40 @@
         <v>349.2108824768027</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G9" t="n">
         <v>133.260889973646</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936201</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I9" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M9" t="n">
-        <v>704.7239474634683</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N9" t="n">
-        <v>704.7239474634683</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O9" t="n">
-        <v>1221.566882129794</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="P9" t="n">
-        <v>1738.409816796119</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q9" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R9" t="n">
         <v>2088.254281480102</v>
@@ -4936,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>308.1619798276301</v>
+        <v>533.263917876656</v>
       </c>
       <c r="C10" t="n">
-        <v>137.0686073893467</v>
+        <v>362.1705454383725</v>
       </c>
       <c r="D10" t="n">
-        <v>41.76508562960205</v>
+        <v>202.6759007612826</v>
       </c>
       <c r="E10" t="n">
         <v>41.76508562960205</v>
@@ -4990,22 +4992,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T10" t="n">
-        <v>1331.615243227154</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U10" t="n">
-        <v>1048.817095773278</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V10" t="n">
-        <v>774.9313507128002</v>
+        <v>1463.112849513378</v>
       </c>
       <c r="W10" t="n">
-        <v>495.8616862216745</v>
+        <v>1184.043185022252</v>
       </c>
       <c r="X10" t="n">
-        <v>495.8616862216745</v>
+        <v>945.6993228819357</v>
       </c>
       <c r="Y10" t="n">
-        <v>495.8616862216745</v>
+        <v>720.9636242707004</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1287.260303845748</v>
+        <v>1270.693821706375</v>
       </c>
       <c r="C11" t="n">
-        <v>877.1357131590178</v>
+        <v>860.5692310196448</v>
       </c>
       <c r="D11" t="n">
-        <v>877.1357131590178</v>
+        <v>456.1053011127053</v>
       </c>
       <c r="E11" t="n">
-        <v>462.7954976759145</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F11" t="n">
         <v>41.76508562960205</v>
@@ -5039,28 +5041,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J11" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K11" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L11" t="n">
-        <v>1054.568412147452</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M11" t="n">
-        <v>1571.411346813777</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N11" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="O11" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="P11" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q11" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R11" t="n">
         <v>2088.254281480102</v>
@@ -5069,22 +5071,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T11" t="n">
-        <v>1954.541975250727</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U11" t="n">
-        <v>1697.481483510237</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V11" t="n">
-        <v>1697.481483510237</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W11" t="n">
-        <v>1697.481483510237</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X11" t="n">
-        <v>1697.481483510237</v>
+        <v>2081.851674422774</v>
       </c>
       <c r="Y11" t="n">
-        <v>1697.481483510237</v>
+        <v>1680.915001370864</v>
       </c>
     </row>
     <row r="12">
@@ -5118,28 +5120,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J12" t="n">
-        <v>41.76508562960205</v>
+        <v>158.3214934345126</v>
       </c>
       <c r="K12" t="n">
-        <v>497.5713418949007</v>
+        <v>158.3214934345126</v>
       </c>
       <c r="L12" t="n">
-        <v>1014.414276561226</v>
+        <v>675.1644281008379</v>
       </c>
       <c r="M12" t="n">
-        <v>1531.257211227551</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="N12" t="n">
-        <v>2048.100145893876</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O12" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="P12" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q12" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R12" t="n">
         <v>2088.254281480102</v>
@@ -5173,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>257.5178240813579</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C13" t="n">
-        <v>257.5178240813579</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D13" t="n">
-        <v>257.5178240813579</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E13" t="n">
-        <v>206.3962115190108</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F13" t="n">
         <v>41.76508562960205</v>
@@ -5221,28 +5223,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R13" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S13" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T13" t="n">
-        <v>1331.615243227154</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U13" t="n">
-        <v>1048.817095773278</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V13" t="n">
-        <v>774.9313507128002</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W13" t="n">
-        <v>495.8616862216745</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="X13" t="n">
-        <v>257.5178240813579</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="Y13" t="n">
-        <v>257.5178240813579</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1738.416726816583</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="C14" t="n">
-        <v>1596.772494638468</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="D14" t="n">
-        <v>1596.772494638468</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="E14" t="n">
-        <v>1182.432279155364</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="F14" t="n">
-        <v>761.4018671090519</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="G14" t="n">
-        <v>352.673583001884</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H14" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I14" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J14" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K14" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L14" t="n">
-        <v>537.7254774811266</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="M14" t="n">
         <v>1054.568412147452</v>
       </c>
       <c r="N14" t="n">
-        <v>1571.411346813777</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="O14" t="n">
         <v>1571.411346813777</v>
@@ -5303,25 +5305,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S14" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T14" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U14" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V14" t="n">
-        <v>1738.416726816583</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W14" t="n">
-        <v>1738.416726816583</v>
+        <v>929.6969191954863</v>
       </c>
       <c r="X14" t="n">
-        <v>1738.416726816583</v>
+        <v>529.0535213644388</v>
       </c>
       <c r="Y14" t="n">
-        <v>1738.416726816583</v>
+        <v>128.1168483125289</v>
       </c>
     </row>
     <row r="15">
@@ -5331,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C15" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D15" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E15" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F15" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G15" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H15" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I15" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J15" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K15" t="n">
-        <v>497.5713418949007</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L15" t="n">
-        <v>1014.414276561226</v>
+        <v>751.4208778585605</v>
       </c>
       <c r="M15" t="n">
-        <v>1531.257211227551</v>
+        <v>751.4208778585605</v>
       </c>
       <c r="N15" t="n">
-        <v>2048.100145893876</v>
+        <v>751.4208778585605</v>
       </c>
       <c r="O15" t="n">
-        <v>2088.254281480102</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="P15" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q15" t="n">
         <v>2088.254281480102</v>
@@ -5391,16 +5393,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V15" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W15" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X15" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y15" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.76508562960205</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C16" t="n">
-        <v>41.76508562960205</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D16" t="n">
-        <v>41.76508562960205</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E16" t="n">
-        <v>41.76508562960205</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F16" t="n">
-        <v>41.76508562960205</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G16" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H16" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I16" t="n">
         <v>41.76508562960205</v>
@@ -5458,28 +5460,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R16" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S16" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T16" t="n">
-        <v>1331.615243227154</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="U16" t="n">
-        <v>1048.817095773278</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="V16" t="n">
-        <v>774.9313507128002</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="W16" t="n">
-        <v>495.8616862216745</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="X16" t="n">
-        <v>257.5178240813579</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="Y16" t="n">
-        <v>41.76508562960205</v>
+        <v>1131.098935930739</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1765.773868496469</v>
+        <v>1678.033101815613</v>
       </c>
       <c r="C17" t="n">
-        <v>1355.649277809739</v>
+        <v>1678.033101815613</v>
       </c>
       <c r="D17" t="n">
-        <v>951.1853479028</v>
+        <v>1273.569171908673</v>
       </c>
       <c r="E17" t="n">
-        <v>536.8451324196967</v>
+        <v>859.22895642557</v>
       </c>
       <c r="F17" t="n">
-        <v>536.8451324196967</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="G17" t="n">
-        <v>128.1168483125289</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H17" t="n">
         <v>128.1168483125289</v>
@@ -5516,22 +5518,22 @@
         <v>295.9505570973564</v>
       </c>
       <c r="K17" t="n">
-        <v>812.7934917636817</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L17" t="n">
         <v>812.7934917636817</v>
       </c>
       <c r="M17" t="n">
-        <v>1209.69369432892</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N17" t="n">
-        <v>1726.536628995245</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="O17" t="n">
-        <v>1726.536628995245</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="P17" t="n">
-        <v>1726.536628995245</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="Q17" t="n">
         <v>2047.697635790537</v>
@@ -5558,7 +5560,7 @@
         <v>2088.254281480102</v>
       </c>
       <c r="Y17" t="n">
-        <v>1765.773868496469</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5594,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J18" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K18" t="n">
-        <v>690.384199457534</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L18" t="n">
-        <v>1207.227134123859</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="M18" t="n">
-        <v>1207.227134123859</v>
+        <v>704.7239474634679</v>
       </c>
       <c r="N18" t="n">
-        <v>1207.227134123859</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="O18" t="n">
-        <v>1724.070068790184</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="P18" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q18" t="n">
         <v>2088.254281480102</v>
@@ -5647,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>41.76508562960205</v>
+        <v>538.4003990889748</v>
       </c>
       <c r="C19" t="n">
-        <v>41.76508562960205</v>
+        <v>367.3070266506913</v>
       </c>
       <c r="D19" t="n">
-        <v>41.76508562960205</v>
+        <v>367.3070266506913</v>
       </c>
       <c r="E19" t="n">
-        <v>41.76508562960205</v>
+        <v>206.3962115190108</v>
       </c>
       <c r="F19" t="n">
         <v>41.76508562960205</v>
@@ -5701,22 +5703,22 @@
         <v>1384.772214130362</v>
       </c>
       <c r="T19" t="n">
-        <v>1384.772214130362</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U19" t="n">
-        <v>1245.499762326802</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="V19" t="n">
-        <v>971.614017266324</v>
+        <v>588.5395825927103</v>
       </c>
       <c r="W19" t="n">
-        <v>692.5443527751984</v>
+        <v>588.5395825927103</v>
       </c>
       <c r="X19" t="n">
-        <v>454.2004906348818</v>
+        <v>588.5395825927103</v>
       </c>
       <c r="Y19" t="n">
-        <v>229.4647920236465</v>
+        <v>588.5395825927103</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2134.851174492981</v>
+        <v>1465.111124375051</v>
       </c>
       <c r="C20" t="n">
-        <v>1724.726583806251</v>
+        <v>1465.111124375051</v>
       </c>
       <c r="D20" t="n">
-        <v>1320.262653899312</v>
+        <v>1060.647194468112</v>
       </c>
       <c r="E20" t="n">
-        <v>1320.262653899312</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F20" t="n">
-        <v>899.2322418529996</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G20" t="n">
-        <v>490.5039577458317</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H20" t="n">
-        <v>179.5954603735497</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I20" t="n">
-        <v>93.2436976906228</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583771</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674165</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="L20" t="n">
-        <v>1598.180070079655</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="M20" t="n">
-        <v>2374.498661071409</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N20" t="n">
-        <v>3127.679677710027</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O20" t="n">
-        <v>3771.310534127132</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P20" t="n">
-        <v>4300.467232046283</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q20" t="n">
-        <v>4621.628238841575</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R20" t="n">
-        <v>4662.18488453114</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S20" t="n">
-        <v>4526.90380932524</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T20" t="n">
-        <v>4304.697325272099</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U20" t="n">
-        <v>4047.636833531609</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="V20" t="n">
-        <v>3697.79927886809</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="W20" t="n">
-        <v>3314.038978003258</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="X20" t="n">
-        <v>2913.395580172211</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="Y20" t="n">
-        <v>2545.072354157471</v>
+        <v>1465.111124375051</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>772.0745395771571</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C21" t="n">
-        <v>638.0794683261029</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D21" t="n">
-        <v>521.1823105454953</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E21" t="n">
-        <v>400.6894945378233</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F21" t="n">
-        <v>291.7296147203278</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G21" t="n">
-        <v>184.7395020346666</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H21" t="n">
-        <v>113.9922890703826</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.2436976906228</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J21" t="n">
-        <v>286.056555253256</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K21" t="n">
-        <v>286.056555253256</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L21" t="n">
-        <v>947.1447271725442</v>
+        <v>751.4208778585605</v>
       </c>
       <c r="M21" t="n">
-        <v>1578.027001052593</v>
+        <v>751.4208778585605</v>
       </c>
       <c r="N21" t="n">
-        <v>1578.027001052593</v>
+        <v>1268.263812524886</v>
       </c>
       <c r="O21" t="n">
-        <v>1578.027001052593</v>
+        <v>1785.106747191211</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q21" t="n">
-        <v>2139.732893541123</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R21" t="n">
-        <v>2139.732893541123</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S21" t="n">
-        <v>2031.742883655432</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T21" t="n">
-        <v>1872.40101984244</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U21" t="n">
-        <v>1675.050208980659</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V21" t="n">
-        <v>1461.338681973692</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W21" t="n">
-        <v>1248.105513710021</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X21" t="n">
-        <v>1071.779531848914</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y21" t="n">
-        <v>912.3775722127438</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3132.785987910289</v>
+        <v>1040.344357017661</v>
       </c>
       <c r="C22" t="n">
-        <v>3132.785987910289</v>
+        <v>1040.344357017661</v>
       </c>
       <c r="D22" t="n">
-        <v>3132.785987910289</v>
+        <v>1040.344357017661</v>
       </c>
       <c r="E22" t="n">
-        <v>3132.785987910289</v>
+        <v>1040.344357017661</v>
       </c>
       <c r="F22" t="n">
-        <v>3132.785987910289</v>
+        <v>875.7132311282519</v>
       </c>
       <c r="G22" t="n">
-        <v>3132.785987910289</v>
+        <v>708.4628400537953</v>
       </c>
       <c r="H22" t="n">
-        <v>3132.785987910289</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="I22" t="n">
-        <v>3132.785987910289</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="J22" t="n">
-        <v>3146.8685373155</v>
+        <v>572.9379342644625</v>
       </c>
       <c r="K22" t="n">
-        <v>3301.420865037738</v>
+        <v>727.4902619867005</v>
       </c>
       <c r="L22" t="n">
-        <v>3561.317965317798</v>
+        <v>987.3873622667611</v>
       </c>
       <c r="M22" t="n">
-        <v>3850.582021758291</v>
+        <v>1276.651418707254</v>
       </c>
       <c r="N22" t="n">
-        <v>4131.420804152542</v>
+        <v>1557.490201101505</v>
       </c>
       <c r="O22" t="n">
-        <v>4390.981414479016</v>
+        <v>1817.050811427979</v>
       </c>
       <c r="P22" t="n">
-        <v>4596.656854728629</v>
+        <v>2022.726251677591</v>
       </c>
       <c r="Q22" t="n">
-        <v>4662.18488453114</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R22" t="n">
-        <v>4662.18488453114</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S22" t="n">
-        <v>4662.18488453114</v>
+        <v>1901.862513360013</v>
       </c>
       <c r="T22" t="n">
-        <v>4422.636145507842</v>
+        <v>1662.313774336715</v>
       </c>
       <c r="U22" t="n">
-        <v>4139.837998053967</v>
+        <v>1552.573964218455</v>
       </c>
       <c r="V22" t="n">
-        <v>3865.952252993488</v>
+        <v>1278.688219157977</v>
       </c>
       <c r="W22" t="n">
-        <v>3586.882588502363</v>
+        <v>1278.688219157977</v>
       </c>
       <c r="X22" t="n">
-        <v>3348.538726362046</v>
+        <v>1040.344357017661</v>
       </c>
       <c r="Y22" t="n">
-        <v>3132.785987910289</v>
+        <v>1040.344357017661</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2140.463105868917</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C23" t="n">
-        <v>1730.338515182187</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D23" t="n">
-        <v>1325.874585275247</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E23" t="n">
-        <v>911.5343697921442</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F23" t="n">
-        <v>490.5039577458317</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G23" t="n">
-        <v>490.5039577458317</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H23" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
@@ -6014,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4565.129187738346</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T23" t="n">
-        <v>4342.922703685204</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U23" t="n">
-        <v>4085.862211944715</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V23" t="n">
-        <v>3736.024657281195</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W23" t="n">
-        <v>3352.264356416364</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X23" t="n">
-        <v>2951.620958585316</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y23" t="n">
-        <v>2550.684285533406</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="24">
@@ -6072,13 +6074,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="N24" t="n">
-        <v>1809.878870496807</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O24" t="n">
         <v>2139.732893541123</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3132.785987910289</v>
+        <v>833.5645812353407</v>
       </c>
       <c r="C25" t="n">
-        <v>3132.785987910289</v>
+        <v>735.6434849807119</v>
       </c>
       <c r="D25" t="n">
-        <v>3132.785987910289</v>
+        <v>735.6434849807119</v>
       </c>
       <c r="E25" t="n">
-        <v>3132.785987910289</v>
+        <v>574.7326698490315</v>
       </c>
       <c r="F25" t="n">
-        <v>3132.785987910289</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="G25" t="n">
-        <v>3132.785987910289</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K25" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L25" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M25" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N25" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O25" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P25" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>4662.18488453114</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S25" t="n">
-        <v>4662.18488453114</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T25" t="n">
-        <v>4422.636145507842</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="U25" t="n">
-        <v>4139.837998053967</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="V25" t="n">
-        <v>3865.952252993488</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="W25" t="n">
-        <v>3586.882588502363</v>
+        <v>1071.908443375657</v>
       </c>
       <c r="X25" t="n">
-        <v>3348.538726362046</v>
+        <v>833.5645812353407</v>
       </c>
       <c r="Y25" t="n">
-        <v>3132.785987910289</v>
+        <v>833.5645812353407</v>
       </c>
     </row>
     <row r="26">
@@ -6200,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2549.191389976085</v>
+        <v>2128.160977929772</v>
       </c>
       <c r="C26" t="n">
-        <v>2139.066799289355</v>
+        <v>1718.036387243042</v>
       </c>
       <c r="D26" t="n">
-        <v>1734.602869382415</v>
+        <v>1313.572457336103</v>
       </c>
       <c r="E26" t="n">
-        <v>1320.262653899312</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="F26" t="n">
         <v>899.2322418529996</v>
@@ -6224,10 +6226,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J26" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K26" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L26" t="n">
         <v>1598.180070079655</v>
@@ -6251,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4662.18488453114</v>
+        <v>4552.827059799201</v>
       </c>
       <c r="T26" t="n">
-        <v>4662.18488453114</v>
+        <v>4330.62057574606</v>
       </c>
       <c r="U26" t="n">
-        <v>4494.590496051882</v>
+        <v>4073.56008400557</v>
       </c>
       <c r="V26" t="n">
-        <v>4144.752941388363</v>
+        <v>3723.722529342051</v>
       </c>
       <c r="W26" t="n">
-        <v>3760.992640523532</v>
+        <v>3339.962228477219</v>
       </c>
       <c r="X26" t="n">
-        <v>3360.349242692484</v>
+        <v>2939.318830646172</v>
       </c>
       <c r="Y26" t="n">
-        <v>2959.412569640574</v>
+        <v>2538.382157594262</v>
       </c>
     </row>
     <row r="27">
@@ -6306,25 +6308,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M27" t="n">
-        <v>182.7137268369972</v>
+        <v>2053.115206569777</v>
       </c>
       <c r="N27" t="n">
-        <v>1056.371818948615</v>
+        <v>2053.115206569777</v>
       </c>
       <c r="O27" t="n">
-        <v>1760.328909494509</v>
+        <v>2053.115206569777</v>
       </c>
       <c r="P27" t="n">
-        <v>1760.328909494509</v>
+        <v>2053.115206569777</v>
       </c>
       <c r="Q27" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R27" t="n">
         <v>2139.732893541123</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.2436976906228</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C28" t="n">
-        <v>93.2436976906228</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D28" t="n">
-        <v>93.2436976906228</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E28" t="n">
-        <v>93.2436976906228</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F28" t="n">
-        <v>93.2436976906228</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G28" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H28" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
@@ -6409,25 +6411,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S28" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T28" t="n">
-        <v>1383.093855288175</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U28" t="n">
-        <v>1100.295707834299</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="V28" t="n">
-        <v>826.4099627738212</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="W28" t="n">
-        <v>547.3402982826956</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="X28" t="n">
-        <v>308.996436142379</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.2436976906228</v>
+        <v>1370.277254385804</v>
       </c>
     </row>
     <row r="29">
@@ -6446,16 +6448,16 @@
         <v>1287.649206862142</v>
       </c>
       <c r="E29" t="n">
-        <v>1233.910891216385</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F29" t="n">
-        <v>812.8804791700727</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G29" t="n">
-        <v>404.1521950629048</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H29" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>772.0745395771571</v>
+        <v>3294.526530567174</v>
       </c>
       <c r="C30" t="n">
-        <v>638.0794683261029</v>
+        <v>3160.531459316119</v>
       </c>
       <c r="D30" t="n">
-        <v>521.1823105454953</v>
+        <v>3043.634301535512</v>
       </c>
       <c r="E30" t="n">
-        <v>400.6894945378233</v>
+        <v>2923.14148552784</v>
       </c>
       <c r="F30" t="n">
-        <v>291.7296147203278</v>
+        <v>2814.181605710345</v>
       </c>
       <c r="G30" t="n">
-        <v>184.7395020346666</v>
+        <v>2707.191493024683</v>
       </c>
       <c r="H30" t="n">
-        <v>113.9922890703826</v>
+        <v>2636.4442800604</v>
       </c>
       <c r="I30" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="J30" t="n">
-        <v>286.056555253256</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="K30" t="n">
-        <v>741.8628115185547</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="L30" t="n">
-        <v>1198.623017005979</v>
+        <v>2765.406248606695</v>
       </c>
       <c r="M30" t="n">
-        <v>1198.623017005979</v>
+        <v>3608.383329301262</v>
       </c>
       <c r="N30" t="n">
-        <v>1198.623017005979</v>
+        <v>3608.383329301262</v>
       </c>
       <c r="O30" t="n">
-        <v>1198.623017005979</v>
+        <v>4312.340419847156</v>
       </c>
       <c r="P30" t="n">
-        <v>1760.328909494509</v>
+        <v>4312.340419847156</v>
       </c>
       <c r="Q30" t="n">
-        <v>2110.173374178493</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R30" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S30" t="n">
-        <v>2031.742883655432</v>
+        <v>4554.194874645448</v>
       </c>
       <c r="T30" t="n">
-        <v>1872.40101984244</v>
+        <v>4394.853010832457</v>
       </c>
       <c r="U30" t="n">
-        <v>1675.050208980659</v>
+        <v>4197.502199970675</v>
       </c>
       <c r="V30" t="n">
-        <v>1461.338681973692</v>
+        <v>3983.790672963709</v>
       </c>
       <c r="W30" t="n">
-        <v>1248.105513710021</v>
+        <v>3770.557504700037</v>
       </c>
       <c r="X30" t="n">
-        <v>1071.779531848914</v>
+        <v>3594.23152283893</v>
       </c>
       <c r="Y30" t="n">
-        <v>912.3775722127438</v>
+        <v>3434.82956320276</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1111.429368843485</v>
+        <v>851.989530876386</v>
       </c>
       <c r="C31" t="n">
-        <v>940.3359964052015</v>
+        <v>851.989530876386</v>
       </c>
       <c r="D31" t="n">
-        <v>780.8413517281115</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E31" t="n">
-        <v>619.930536596431</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F31" t="n">
-        <v>455.2994107070223</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G31" t="n">
-        <v>288.0490196325657</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H31" t="n">
-        <v>138.4415644380223</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I31" t="n">
         <v>93.2436976906228</v>
@@ -6643,28 +6645,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T31" t="n">
-        <v>1111.429368843485</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U31" t="n">
-        <v>1111.429368843485</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V31" t="n">
-        <v>1111.429368843485</v>
+        <v>1348.756849250995</v>
       </c>
       <c r="W31" t="n">
-        <v>1111.429368843485</v>
+        <v>1348.756849250995</v>
       </c>
       <c r="X31" t="n">
-        <v>1111.429368843485</v>
+        <v>1110.412987110678</v>
       </c>
       <c r="Y31" t="n">
-        <v>1111.429368843485</v>
+        <v>1039.68923727043</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C32" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D32" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E32" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F32" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G32" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H32" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6725,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T32" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U32" t="n">
-        <v>4047.636833531609</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V32" t="n">
-        <v>3697.79927886809</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W32" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X32" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y32" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="33">
@@ -6783,19 +6785,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M33" t="n">
-        <v>936.2207783851894</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N33" t="n">
-        <v>936.2207783851894</v>
+        <v>1085.931338311245</v>
       </c>
       <c r="O33" t="n">
-        <v>1640.177868931084</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q33" t="n">
         <v>2139.732893541123</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1124.934470981593</v>
+        <v>3956.166337121209</v>
       </c>
       <c r="C34" t="n">
-        <v>1011.484175553476</v>
+        <v>3785.072964682925</v>
       </c>
       <c r="D34" t="n">
-        <v>851.989530876386</v>
+        <v>3625.578320005835</v>
       </c>
       <c r="E34" t="n">
-        <v>691.0787157447054</v>
+        <v>3464.667504874155</v>
       </c>
       <c r="F34" t="n">
-        <v>526.4475898552967</v>
+        <v>3300.036378984746</v>
       </c>
       <c r="G34" t="n">
-        <v>359.19719878084</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H34" t="n">
-        <v>209.5897435862967</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I34" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J34" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K34" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L34" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M34" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N34" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O34" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P34" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q34" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R34" t="n">
-        <v>1537.369875986873</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S34" t="n">
-        <v>1537.369875986873</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T34" t="n">
-        <v>1537.369875986873</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U34" t="n">
-        <v>1537.369875986873</v>
+        <v>4382.20990565557</v>
       </c>
       <c r="V34" t="n">
-        <v>1537.369875986873</v>
+        <v>4382.20990565557</v>
       </c>
       <c r="W34" t="n">
-        <v>1537.369875986873</v>
+        <v>4382.20990565557</v>
       </c>
       <c r="X34" t="n">
-        <v>1537.369875986873</v>
+        <v>4143.866043515253</v>
       </c>
       <c r="Y34" t="n">
-        <v>1312.634177375637</v>
+        <v>4143.866043515253</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2549.191389976085</v>
+        <v>2237.518802661711</v>
       </c>
       <c r="C35" t="n">
-        <v>2139.066799289355</v>
+        <v>1827.394211974981</v>
       </c>
       <c r="D35" t="n">
-        <v>1734.602869382415</v>
+        <v>1422.930282068041</v>
       </c>
       <c r="E35" t="n">
-        <v>1320.262653899312</v>
+        <v>1008.590066584938</v>
       </c>
       <c r="F35" t="n">
-        <v>899.2322418529996</v>
+        <v>587.5596545386256</v>
       </c>
       <c r="G35" t="n">
-        <v>490.5039577458317</v>
+        <v>178.8313704314578</v>
       </c>
       <c r="H35" t="n">
-        <v>179.5954603735497</v>
+        <v>178.8313704314578</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J35" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K35" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L35" t="n">
         <v>1598.180070079655</v>
@@ -6965,22 +6967,22 @@
         <v>4662.18488453114</v>
       </c>
       <c r="T35" t="n">
-        <v>4662.18488453114</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U35" t="n">
-        <v>4494.590496051882</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V35" t="n">
-        <v>4144.752941388363</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W35" t="n">
-        <v>3760.992640523532</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X35" t="n">
-        <v>3360.349242692484</v>
+        <v>3048.67665537811</v>
       </c>
       <c r="Y35" t="n">
-        <v>2959.412569640574</v>
+        <v>2647.7399823262</v>
       </c>
     </row>
     <row r="36">
@@ -7020,22 +7022,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L36" t="n">
-        <v>93.2436976906228</v>
+        <v>532.5581915209807</v>
       </c>
       <c r="M36" t="n">
-        <v>562.1177108836107</v>
+        <v>532.5581915209807</v>
       </c>
       <c r="N36" t="n">
-        <v>1435.775802995229</v>
+        <v>1406.216283632599</v>
       </c>
       <c r="O36" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q36" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R36" t="n">
         <v>2139.732893541123</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1182.57754799176</v>
+        <v>895.138129657802</v>
       </c>
       <c r="C37" t="n">
-        <v>1011.484175553476</v>
+        <v>895.138129657802</v>
       </c>
       <c r="D37" t="n">
-        <v>851.989530876386</v>
+        <v>735.6434849807119</v>
       </c>
       <c r="E37" t="n">
-        <v>691.0787157447054</v>
+        <v>574.7326698490315</v>
       </c>
       <c r="F37" t="n">
-        <v>526.4475898552967</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="G37" t="n">
-        <v>359.19719878084</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H37" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I37" t="n">
         <v>93.2436976906228</v>
@@ -7120,25 +7122,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S37" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T37" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U37" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="V37" t="n">
-        <v>1622.642594311473</v>
+        <v>1162.365081130905</v>
       </c>
       <c r="W37" t="n">
-        <v>1622.642594311473</v>
+        <v>1162.365081130905</v>
       </c>
       <c r="X37" t="n">
-        <v>1595.012952997039</v>
+        <v>1162.365081130905</v>
       </c>
       <c r="Y37" t="n">
-        <v>1370.277254385804</v>
+        <v>937.6293825196698</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2502.881125286859</v>
+        <v>2452.075282119331</v>
       </c>
       <c r="C38" t="n">
-        <v>2092.756534600129</v>
+        <v>2041.950691432601</v>
       </c>
       <c r="D38" t="n">
-        <v>1688.29260469319</v>
+        <v>1637.486761525662</v>
       </c>
       <c r="E38" t="n">
-        <v>1273.952389210086</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F38" t="n">
-        <v>852.921977163774</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G38" t="n">
-        <v>444.1936930566062</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H38" t="n">
-        <v>133.2851956843242</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
@@ -7208,16 +7210,16 @@
         <v>4047.636833531609</v>
       </c>
       <c r="V38" t="n">
-        <v>3697.79927886809</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="W38" t="n">
-        <v>3314.038978003258</v>
+        <v>3663.876532666778</v>
       </c>
       <c r="X38" t="n">
-        <v>3314.038978003258</v>
+        <v>3263.23313483573</v>
       </c>
       <c r="Y38" t="n">
-        <v>2913.102304951348</v>
+        <v>2862.29646178382</v>
       </c>
     </row>
     <row r="39">
@@ -7254,25 +7256,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L39" t="n">
-        <v>93.2436976906228</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M39" t="n">
-        <v>562.1177108836107</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N39" t="n">
-        <v>1435.775802995229</v>
+        <v>2083.796217986828</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>2083.796217986828</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q39" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R39" t="n">
         <v>2139.732893541123</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>93.2436976906228</v>
+        <v>687.3584049869771</v>
       </c>
       <c r="C40" t="n">
-        <v>93.2436976906228</v>
+        <v>687.3584049869771</v>
       </c>
       <c r="D40" t="n">
-        <v>93.2436976906228</v>
+        <v>687.3584049869771</v>
       </c>
       <c r="E40" t="n">
-        <v>93.2436976906228</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="F40" t="n">
-        <v>93.2436976906228</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G40" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H40" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7354,28 +7356,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S40" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T40" t="n">
-        <v>1383.093855288175</v>
+        <v>1297.821136963575</v>
       </c>
       <c r="U40" t="n">
-        <v>1100.295707834299</v>
+        <v>1297.821136963575</v>
       </c>
       <c r="V40" t="n">
-        <v>826.4099627738212</v>
+        <v>1023.935391903097</v>
       </c>
       <c r="W40" t="n">
-        <v>547.3402982826956</v>
+        <v>744.865727411971</v>
       </c>
       <c r="X40" t="n">
-        <v>317.9793963018581</v>
+        <v>744.865727411971</v>
       </c>
       <c r="Y40" t="n">
-        <v>93.2436976906228</v>
+        <v>744.865727411971</v>
       </c>
     </row>
     <row r="41">
@@ -7388,22 +7390,22 @@
         <v>2102.237727455811</v>
       </c>
       <c r="C41" t="n">
-        <v>1692.113136769081</v>
+        <v>1724.726583806251</v>
       </c>
       <c r="D41" t="n">
-        <v>1287.649206862142</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="E41" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F41" t="n">
-        <v>501.9719817977906</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G41" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H41" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I41" t="n">
         <v>93.2436976906228</v>
@@ -7488,28 +7490,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K42" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L42" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M42" t="n">
-        <v>936.2207783851894</v>
+        <v>886.6708173828915</v>
       </c>
       <c r="N42" t="n">
-        <v>936.2207783851894</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="O42" t="n">
-        <v>1578.027001052593</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="P42" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q42" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R42" t="n">
         <v>2139.732893541123</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>93.2436976906228</v>
+        <v>3292.280632587379</v>
       </c>
       <c r="C43" t="n">
-        <v>93.2436976906228</v>
+        <v>3292.280632587379</v>
       </c>
       <c r="D43" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="E43" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="F43" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="G43" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H43" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I43" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J43" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K43" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L43" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M43" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N43" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O43" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P43" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q43" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R43" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S43" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T43" t="n">
-        <v>1383.093855288175</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U43" t="n">
-        <v>1100.295707834299</v>
+        <v>4379.386737077264</v>
       </c>
       <c r="V43" t="n">
-        <v>826.4099627738212</v>
+        <v>4105.500992016786</v>
       </c>
       <c r="W43" t="n">
-        <v>547.3402982826956</v>
+        <v>3826.43132752566</v>
       </c>
       <c r="X43" t="n">
-        <v>308.996436142379</v>
+        <v>3588.087465385343</v>
       </c>
       <c r="Y43" t="n">
-        <v>93.2436976906228</v>
+        <v>3363.351766774108</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>73.80937927516317</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C44" t="n">
-        <v>73.80937927516317</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D44" t="n">
-        <v>73.80937927516317</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E44" t="n">
-        <v>73.80937927516317</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F44" t="n">
-        <v>41.76508562960205</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="G44" t="n">
-        <v>41.76508562960205</v>
+        <v>464.5807072718708</v>
       </c>
       <c r="H44" t="n">
-        <v>41.76508562960205</v>
+        <v>153.6722098995888</v>
       </c>
       <c r="I44" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>295.9505570973564</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K44" t="n">
-        <v>812.7934917636817</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L44" t="n">
-        <v>1329.636426430007</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M44" t="n">
-        <v>1329.636426430007</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N44" t="n">
-        <v>1329.636426430007</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O44" t="n">
-        <v>1530.854701124212</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P44" t="n">
-        <v>2047.697635790537</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q44" t="n">
-        <v>2047.697635790537</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R44" t="n">
-        <v>2088.254281480102</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>2088.254281480102</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T44" t="n">
-        <v>1866.047797426961</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U44" t="n">
-        <v>1608.987305686471</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V44" t="n">
-        <v>1259.149751022952</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W44" t="n">
-        <v>875.3894501581206</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X44" t="n">
-        <v>474.7460523270731</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y44" t="n">
-        <v>73.80937927516317</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>720.5959275161366</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C45" t="n">
-        <v>586.6008562650824</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D45" t="n">
-        <v>469.7036984844747</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E45" t="n">
-        <v>349.2108824768027</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F45" t="n">
-        <v>240.2510026593072</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G45" t="n">
-        <v>133.260889973646</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H45" t="n">
-        <v>62.51367700936203</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I45" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>234.5779431922353</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K45" t="n">
-        <v>234.5779431922353</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L45" t="n">
-        <v>234.5779431922353</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M45" t="n">
-        <v>751.4208778585605</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N45" t="n">
-        <v>1268.263812524886</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O45" t="n">
-        <v>1268.263812524886</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P45" t="n">
-        <v>1738.409816796119</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q45" t="n">
-        <v>2088.254281480102</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R45" t="n">
-        <v>2088.254281480102</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S45" t="n">
-        <v>1980.264271594411</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T45" t="n">
-        <v>1820.922407781419</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U45" t="n">
-        <v>1623.571596919638</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V45" t="n">
-        <v>1409.860069912672</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W45" t="n">
-        <v>1196.626901649001</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X45" t="n">
-        <v>1020.300919787893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y45" t="n">
-        <v>860.8989601517233</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>777.1526093285881</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C46" t="n">
-        <v>777.1526093285881</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D46" t="n">
-        <v>777.1526093285881</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E46" t="n">
-        <v>639.6001036836846</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F46" t="n">
-        <v>474.9689777942758</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G46" t="n">
-        <v>307.7185867198193</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H46" t="n">
-        <v>158.1111315252759</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I46" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J46" t="n">
-        <v>55.84763503481257</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K46" t="n">
-        <v>210.3999627570506</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L46" t="n">
-        <v>470.2970630371111</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M46" t="n">
-        <v>759.5611194776044</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N46" t="n">
-        <v>1040.399901871855</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O46" t="n">
-        <v>1299.960512198329</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P46" t="n">
-        <v>1505.635952447941</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q46" t="n">
-        <v>1571.163982250452</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>1485.891263925851</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S46" t="n">
-        <v>1299.499495805762</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T46" t="n">
-        <v>1059.950756782464</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U46" t="n">
-        <v>777.1526093285881</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V46" t="n">
-        <v>777.1526093285881</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W46" t="n">
-        <v>777.1526093285881</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X46" t="n">
-        <v>777.1526093285881</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y46" t="n">
-        <v>777.1526093285881</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
   </sheetData>
@@ -7976,16 +7978,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L2" t="n">
-        <v>339.7024893595825</v>
+        <v>555.4891820648243</v>
       </c>
       <c r="M2" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
         <v>92.91229075661933</v>
@@ -8000,7 +8002,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,28 +8057,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K3" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M3" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>63.89502594283636</v>
       </c>
       <c r="O3" t="n">
         <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
-        <v>560.9496989519242</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
         <v>88.85829947169823</v>
@@ -8213,16 +8215,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>265.701425083553</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
         <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
-        <v>93.29022445704545</v>
+        <v>296.5410069764446</v>
       </c>
       <c r="N5" t="n">
         <v>92.91229075661933</v>
@@ -8234,10 +8236,10 @@
         <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,25 +8297,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>57.56428373841742</v>
+        <v>558.5343765177352</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O6" t="n">
-        <v>266.9965351298658</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
         <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
         <v>59.00019910540541</v>
@@ -8456,7 +8458,7 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
-        <v>596.4554908421626</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M8" t="n">
         <v>615.3537948270711</v>
@@ -8465,7 +8467,7 @@
         <v>614.9758611266449</v>
       </c>
       <c r="O8" t="n">
-        <v>615.2533459958087</v>
+        <v>594.1598684051008</v>
       </c>
       <c r="P8" t="n">
         <v>93.64936328088416</v>
@@ -8529,7 +8531,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
         <v>516.2361426485535</v>
@@ -8538,22 +8540,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>266.8093398682837</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O9" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>576.3232053728293</v>
+        <v>560.9496989519245</v>
       </c>
       <c r="Q9" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,19 +8689,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
         <v>611.1999600432426</v>
       </c>
       <c r="L11" t="n">
-        <v>596.4554908421626</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M11" t="n">
         <v>615.3537948270711</v>
       </c>
       <c r="N11" t="n">
-        <v>614.9758611266449</v>
+        <v>493.8215862770622</v>
       </c>
       <c r="O11" t="n">
         <v>93.18977562578313</v>
@@ -8708,10 +8710,10 @@
         <v>93.64936328088416</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,10 +8768,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>169.1029840574854</v>
       </c>
       <c r="K12" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
         <v>578.1780941808746</v>
@@ -8778,19 +8780,19 @@
         <v>579.627854108443</v>
       </c>
       <c r="N12" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>98.31121191537929</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P12" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,22 +8926,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L14" t="n">
-        <v>596.4554908421626</v>
+        <v>339.7024893595824</v>
       </c>
       <c r="M14" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N14" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O14" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P14" t="n">
         <v>615.7129336509097</v>
@@ -9003,28 +9005,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
         <v>578.1780941808746</v>
       </c>
       <c r="M15" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>98.31121191537929</v>
+        <v>532.6464328093264</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
         <v>59.00019910540541</v>
@@ -9164,25 +9166,25 @@
         <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L17" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M17" t="n">
-        <v>494.1995199774884</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N17" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O17" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P17" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q17" t="n">
-        <v>414.4388617681339</v>
+        <v>293.2845869185513</v>
       </c>
       <c r="R17" t="n">
         <v>128.2784515920617</v>
@@ -9240,28 +9242,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>57.56428373841742</v>
+        <v>266.8093398682832</v>
       </c>
       <c r="N18" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O18" t="n">
         <v>579.8150493700256</v>
       </c>
       <c r="P18" t="n">
-        <v>422.1224761037303</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
         <v>59.00019910540541</v>
@@ -9398,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K20" t="n">
-        <v>632.7318453389136</v>
+        <v>590.1064824525349</v>
       </c>
       <c r="L20" t="n">
-        <v>815.2746908024792</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M20" t="n">
-        <v>877.4504173780091</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N20" t="n">
-        <v>853.701196452193</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O20" t="n">
-        <v>743.321953824879</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P20" t="n">
-        <v>628.1510783507341</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q20" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,19 +9485,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
-        <v>723.8803540323523</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M21" t="n">
-        <v>694.8191058394766</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O21" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P21" t="n">
-        <v>621.6393243851574</v>
+        <v>360.4692655976428</v>
       </c>
       <c r="Q21" t="n">
         <v>56.69261850483872</v>
@@ -9720,16 +9722,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>745.8914891781321</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P24" t="n">
         <v>54.25963500280375</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K26" t="n">
         <v>632.7318453389136</v>
@@ -9881,7 +9883,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M26" t="n">
-        <v>877.4504173780091</v>
+        <v>877.4504173780092</v>
       </c>
       <c r="N26" t="n">
         <v>853.701196452193</v>
@@ -9954,28 +9956,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
-        <v>147.9380505529371</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q27" t="n">
-        <v>410.0708656603775</v>
+        <v>144.1852316072087</v>
       </c>
       <c r="R27" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10127,10 +10129,10 @@
         <v>743.321953824879</v>
       </c>
       <c r="P29" t="n">
-        <v>628.1510783507342</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q29" t="n">
-        <v>414.4388617681339</v>
+        <v>414.4388617681334</v>
       </c>
       <c r="R29" t="n">
         <v>128.2784515920617</v>
@@ -10188,31 +10190,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K30" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L30" t="n">
-        <v>517.4884687476416</v>
+        <v>207.3373116149458</v>
       </c>
       <c r="M30" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N30" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P30" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q30" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10367,7 +10369,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q32" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R32" t="n">
         <v>128.2784515920617</v>
@@ -10431,22 +10433,22 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>53.19339339374999</v>
+        <v>388.1423516779259</v>
       </c>
       <c r="O33" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P33" t="n">
-        <v>558.8606699624394</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
         <v>59.00019910540541</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
         <v>632.7318453389136</v>
@@ -10607,7 +10609,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10668,10 +10670,10 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>499.8665377809075</v>
       </c>
       <c r="M36" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
         <v>935.6763147186165</v>
@@ -10686,7 +10688,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R36" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10902,28 +10904,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O39" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>80.90322711559679</v>
       </c>
       <c r="Q39" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R39" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11078,10 +11080,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>414.4388617681339</v>
+        <v>414.4388617681334</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,31 +11138,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>909.0562844399999</v>
+        <v>203.834996732697</v>
       </c>
       <c r="N42" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O42" t="n">
-        <v>706.040592805458</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,25 +11299,25 @@
         <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>611.1999600432426</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
-        <v>617.5489684328704</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>93.29022445704545</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
-        <v>92.91229075661933</v>
+        <v>853.7011964521931</v>
       </c>
       <c r="O44" t="n">
-        <v>296.4405581451824</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>615.7129336509097</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
         <v>128.2784515920617</v>
@@ -11376,28 +11378,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M45" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
         <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>529.1545888121299</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22547,16 +22549,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>201.6446988949099</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>404.6410012660961</v>
@@ -22595,10 +22597,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22607,13 +22609,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>241.9434605171091</v>
       </c>
       <c r="X2" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -22714,16 +22716,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22753,7 +22755,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
@@ -22762,16 +22764,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>164.1762662001701</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>157.1745055375997</v>
       </c>
     </row>
     <row r="5">
@@ -22784,22 +22786,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>293.7750194908349</v>
+        <v>296.2005380549229</v>
       </c>
       <c r="I5" t="n">
         <v>85.48824505609757</v>
@@ -22844,13 +22846,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22939,13 +22941,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
         <v>159.3017069803637</v>
@@ -22987,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>13.69783758927031</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>55.35263051300493</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -23018,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>1.375113957950532</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23069,7 +23071,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>219.9844192126098</v>
@@ -23078,16 +23080,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>143.9600009549133</v>
       </c>
       <c r="W8" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23182,10 +23184,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>63.54921168817192</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>162.9848146305146</v>
@@ -23230,22 +23232,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>164.1762662001701</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23261,13 +23263,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
         <v>404.6410012660961</v>
@@ -23309,10 +23311,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>87.60923604552838</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
@@ -23321,10 +23323,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>390.2983828659821</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23422,10 +23424,10 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>108.6913105436401</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
         <v>165.577887163712</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>41.88054861921441</v>
       </c>
     </row>
     <row r="14">
@@ -23495,25 +23497,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>265.7955549235284</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>187.6926588008324</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23653,25 +23655,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>113.2536117030641</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>8.89313055788466</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -23729,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23741,13 +23743,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>405.4595345585939</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23798,7 +23800,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>77.67169746759419</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -23887,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>136.1849176614058</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.577887163712</v>
@@ -23941,22 +23943,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>142.0904386938127</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -23966,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>222.9646347700933</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23984,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>32.28731256679805</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24136,13 +24138,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>115.1825854367171</v>
@@ -24175,25 +24177,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>171.3277539622601</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>8.893130557883893</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -24215,16 +24217,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>49.19646844041381</v>
       </c>
       <c r="G23" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>37.84312462897394</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24364,22 +24366,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>72.44055342181818</v>
       </c>
       <c r="D25" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>115.1825854367171</v>
@@ -24409,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>8.893130557883893</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -24452,7 +24454,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24491,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>25.66401796922122</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>88.57144222861982</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,25 +24651,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>8.893130557884348</v>
+        <v>157.1745055375995</v>
       </c>
     </row>
     <row r="29">
@@ -24686,19 +24688,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>356.9958808389731</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>134.6847134965114</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24835,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>70.43669735679158</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>152.4718292832774</v>
       </c>
     </row>
     <row r="32">
@@ -24929,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24977,7 +24979,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>88.57144222862053</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25075,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>57.06664624006507</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
         <v>184.5278504388888</v>
@@ -25129,7 +25131,7 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>2.794936892522969</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
@@ -25138,10 +25140,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -25169,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.7564490426709227</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25205,10 +25207,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>88.57144222861982</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>143.7563689968548</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25362,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>237.1532516330649</v>
@@ -25369,13 +25371,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>208.6070786176239</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25397,7 +25399,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>96.14494677818607</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25409,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>45.84716204233317</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25448,13 +25450,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>128.89046012936</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
@@ -25555,19 +25557,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>184.5278504388888</v>
@@ -25603,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>8.893130557884376</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25628,25 +25630,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>32.28731256679851</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25783,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>115.4622864852426</v>
       </c>
       <c r="C43" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>159.3017069803637</v>
@@ -25837,7 +25839,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>8.893130557884348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25862,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>385.0962572167438</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>25.66401796922125</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26029,19 +26031,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>23.12472639190918</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>8.893130557884547</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>533156.9751288753</v>
+        <v>533156.9751288755</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>533156.9751288753</v>
+        <v>533156.9751288755</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>533156.9751288756</v>
+        <v>533156.9751288753</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>533156.9751288756</v>
+        <v>533156.9751288755</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>533156.9751288753</v>
+        <v>533156.9751288756</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>811750.7063887563</v>
+        <v>533156.9751288756</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>811750.7063887563</v>
+        <v>811750.7063887561</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>811750.7063887563</v>
+        <v>811750.7063887561</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>811750.7063887559</v>
+        <v>811750.7063887562</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>811750.7063887561</v>
+        <v>811750.7063887562</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>811750.7063887562</v>
+        <v>811750.7063887559</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>811750.7063887563</v>
+        <v>811750.7063887562</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>533156.9751288756</v>
+        <v>811750.7063887563</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>161720.1620581894</v>
+        <v>161720.1620581895</v>
       </c>
       <c r="C2" t="n">
         <v>161720.1620581895</v>
       </c>
       <c r="D2" t="n">
-        <v>161720.1620581894</v>
+        <v>161720.1620581895</v>
       </c>
       <c r="E2" t="n">
         <v>161720.1620581895</v>
@@ -26326,34 +26328,34 @@
         <v>161720.1620581895</v>
       </c>
       <c r="G2" t="n">
+        <v>161720.1620581895</v>
+      </c>
+      <c r="H2" t="n">
         <v>161720.1620581894</v>
-      </c>
-      <c r="H2" t="n">
-        <v>246201.3674048298</v>
       </c>
       <c r="I2" t="n">
         <v>246201.3674048298</v>
       </c>
       <c r="J2" t="n">
-        <v>246201.3674048298</v>
+        <v>246201.3674048297</v>
       </c>
       <c r="K2" t="n">
         <v>246201.3674048297</v>
       </c>
       <c r="L2" t="n">
+        <v>246201.3674048298</v>
+      </c>
+      <c r="M2" t="n">
         <v>246201.3674048297</v>
-      </c>
-      <c r="M2" t="n">
-        <v>246201.3674048298</v>
       </c>
       <c r="N2" t="n">
         <v>246201.3674048297</v>
       </c>
       <c r="O2" t="n">
-        <v>246201.3674048298</v>
+        <v>246201.3674048297</v>
       </c>
       <c r="P2" t="n">
-        <v>161720.1620581895</v>
+        <v>246201.3674048297</v>
       </c>
     </row>
     <row r="3">
@@ -26381,10 +26383,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>173617.4105196494</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>171115.5499734837</v>
       </c>
       <c r="J3" t="n">
         <v>136594.800805895</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>29404.49246814042</v>
+        <v>29404.49246814041</v>
       </c>
       <c r="C4" t="n">
         <v>29404.49246814042</v>
@@ -26433,31 +26435,31 @@
         <v>29404.49246814041</v>
       </c>
       <c r="H4" t="n">
+        <v>29404.49246814042</v>
+      </c>
+      <c r="I4" t="n">
         <v>44919.86535090264</v>
-      </c>
-      <c r="I4" t="n">
-        <v>44919.86535090265</v>
       </c>
       <c r="J4" t="n">
         <v>44919.86535090264</v>
       </c>
       <c r="K4" t="n">
+        <v>44919.86535090263</v>
+      </c>
+      <c r="L4" t="n">
         <v>44919.86535090264</v>
       </c>
-      <c r="L4" t="n">
-        <v>44919.86535090265</v>
-      </c>
       <c r="M4" t="n">
-        <v>44919.86535090265</v>
+        <v>44919.86535090264</v>
       </c>
       <c r="N4" t="n">
-        <v>44919.86535090265</v>
+        <v>44919.86535090264</v>
       </c>
       <c r="O4" t="n">
         <v>44919.86535090264</v>
       </c>
       <c r="P4" t="n">
-        <v>29404.49246814042</v>
+        <v>44919.86535090263</v>
       </c>
     </row>
     <row r="5">
@@ -26485,7 +26487,7 @@
         <v>31741.46507849755</v>
       </c>
       <c r="H5" t="n">
-        <v>70865.21024487332</v>
+        <v>31741.46507849755</v>
       </c>
       <c r="I5" t="n">
         <v>70865.21024487332</v>
@@ -26509,7 +26511,7 @@
         <v>70865.21024487332</v>
       </c>
       <c r="P5" t="n">
-        <v>31741.46507849755</v>
+        <v>70865.21024487332</v>
       </c>
     </row>
     <row r="6">
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-108008.9053815626</v>
+        <v>-108008.9053815625</v>
       </c>
       <c r="C6" t="n">
         <v>66946.6045115515</v>
       </c>
       <c r="D6" t="n">
-        <v>66946.60451155147</v>
+        <v>66946.60451155156</v>
       </c>
       <c r="E6" t="n">
-        <v>100574.2045115516</v>
+        <v>100574.2045115515</v>
       </c>
       <c r="F6" t="n">
         <v>100574.2045115515</v>
@@ -26537,16 +26539,16 @@
         <v>100574.2045115515</v>
       </c>
       <c r="H6" t="n">
-        <v>-43201.11871059553</v>
+        <v>100574.2045115515</v>
       </c>
       <c r="I6" t="n">
+        <v>-40699.25816442986</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-6178.508996841199</v>
+      </c>
+      <c r="K6" t="n">
         <v>130416.2918090538</v>
-      </c>
-      <c r="J6" t="n">
-        <v>-6178.50899684117</v>
-      </c>
-      <c r="K6" t="n">
-        <v>130416.2918090537</v>
       </c>
       <c r="L6" t="n">
         <v>130416.2918090538</v>
@@ -26555,13 +26557,13 @@
         <v>130416.2918090538</v>
       </c>
       <c r="N6" t="n">
-        <v>130416.2918090538</v>
+        <v>130416.2918090537</v>
       </c>
       <c r="O6" t="n">
         <v>130416.2918090538</v>
       </c>
       <c r="P6" t="n">
-        <v>100574.2045115515</v>
+        <v>130416.2918090538</v>
       </c>
     </row>
   </sheetData>
@@ -26805,7 +26807,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="H4" t="n">
-        <v>1165.546221132785</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="I4" t="n">
         <v>1165.546221132785</v>
@@ -26829,7 +26831,7 @@
         <v>1165.546221132785</v>
       </c>
       <c r="P4" t="n">
-        <v>522.0635703700256</v>
+        <v>1165.546221132785</v>
       </c>
     </row>
   </sheetData>
@@ -27027,10 +27029,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>643.4826507627594</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>522.0635703700256</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>643.4826507627594</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,16 +34698,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L2" t="n">
-        <v>244.2170912967377</v>
+        <v>460.0037840019794</v>
       </c>
       <c r="M2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -34720,7 +34722,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>10.70163254908636</v>
       </c>
       <c r="O3" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P3" t="n">
-        <v>506.6900639491205</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>29.85810036629282</v>
@@ -34933,16 +34935,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>176.5650354103358</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>203.2507825193992</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -34954,10 +34956,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="Q5" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>500.9700927793178</v>
+      </c>
+      <c r="N6" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
       <c r="O6" t="n">
-        <v>209.2450561298658</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P6" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q6" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35176,7 +35178,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>500.9700927793178</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M8" t="n">
         <v>522.0635703700256</v>
@@ -35185,7 +35187,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="O8" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
         <v>460.4103598639381</v>
@@ -35258,22 +35260,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>209.2450561298663</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>522.0635703700256</v>
+        <v>506.6900639491207</v>
       </c>
       <c r="Q9" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="L11" t="n">
-        <v>500.9700927793178</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N11" t="n">
-        <v>522.0635703700256</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -35428,10 +35430,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>117.7337452574854</v>
       </c>
       <c r="K12" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>522.0635703700256</v>
@@ -35498,19 +35500,19 @@
         <v>522.0635703700256</v>
       </c>
       <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="O12" t="n">
-        <v>40.55973291537929</v>
-      </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,22 +35646,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L14" t="n">
-        <v>500.9700927793178</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="N14" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>522.0635703700256</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>474.8949538093264</v>
+      </c>
+      <c r="P15" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N15" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O15" t="n">
-        <v>40.55973291537929</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,25 +35886,25 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
       <c r="M17" t="n">
-        <v>400.9092955204429</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>324.4050573689818</v>
+        <v>203.2507825193993</v>
       </c>
       <c r="R17" t="n">
         <v>40.9663087773382</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>209.2450561298658</v>
+      </c>
+      <c r="N18" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P18" t="n">
-        <v>367.8628411009266</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>543.5954556656965</v>
+        <v>500.9700927793178</v>
       </c>
       <c r="L20" t="n">
-        <v>719.7892927396343</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M20" t="n">
-        <v>784.1601929209636</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N20" t="n">
-        <v>760.7889056955737</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>650.1321781990958</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P20" t="n">
-        <v>534.50171506985</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,19 +36205,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>667.7658302215033</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M21" t="n">
-        <v>637.2548221010592</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P21" t="n">
-        <v>567.3796893823536</v>
+        <v>306.2096305948391</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36440,16 +36442,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>688.3272054397147</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36592,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K26" t="n">
         <v>543.5954556656965</v>
@@ -36601,7 +36603,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M26" t="n">
-        <v>784.1601929209636</v>
+        <v>784.1601929209637</v>
       </c>
       <c r="N26" t="n">
         <v>760.7889056955737</v>
@@ -36674,28 +36676,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M27" t="n">
-        <v>90.37376681451964</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>353.3782471555388</v>
+        <v>87.49261310237</v>
       </c>
       <c r="R27" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36847,10 +36849,10 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P29" t="n">
-        <v>534.5017150698501</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q29" t="n">
-        <v>324.4050573689818</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R29" t="n">
         <v>40.9663087773382</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>461.3739449367926</v>
+        <v>151.2227878040968</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P30" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37087,7 +37089,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q32" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R32" t="n">
         <v>40.9663087773382</v>
@@ -37151,22 +37153,22 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>334.9489582841759</v>
       </c>
       <c r="O33" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P33" t="n">
-        <v>504.6010349596356</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K35" t="n">
         <v>543.5954556656965</v>
@@ -37327,7 +37329,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R35" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,10 +37390,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>443.7520139700585</v>
       </c>
       <c r="M36" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>882.4829213248665</v>
@@ -37406,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37622,28 +37624,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M39" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O39" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>26.64359211279304</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37798,10 +37800,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
-        <v>324.4050573689818</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R41" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>851.4920007015825</v>
+        <v>146.2707129942796</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O42" t="n">
-        <v>648.289113805458</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38017,25 +38019,25 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>522.0635703700256</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
-        <v>522.0635703700256</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>760.7889056955738</v>
       </c>
       <c r="O44" t="n">
-        <v>203.2507825193993</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
-        <v>522.0635703700256</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
         <v>40.9663087773382</v>
@@ -38096,28 +38098,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M45" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>474.8949538093261</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>516556.0087818061</v>
+        <v>512323.1362581368</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7765049.281621786</v>
+        <v>7765049.281621777</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6187346.756951106</v>
+        <v>6187346.756951111</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>291.2649717259652</v>
       </c>
       <c r="D2" t="n">
         <v>400.41929060787</v>
@@ -670,16 +670,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>137.979237339074</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I3" t="n">
-        <v>20.54110546596223</v>
+        <v>20.54110546596236</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>82.85798684944078</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>65.31383608752321</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>315.8394099380797</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>11.59887434363629</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>396.9273063213908</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>237.1532516330649</v>
@@ -1119,10 +1119,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>180.6077930059085</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="8">
@@ -1135,16 +1135,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
         <v>404.6410012660961</v>
@@ -1186,22 +1186,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>202.3791781619709</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>100.4755658261449</v>
       </c>
     </row>
     <row r="9">
@@ -1293,19 +1293,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1341,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>172.3234750948861</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>106.9706214097031</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>190.2000715022178</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>6.338580986754886</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
         <v>396.9273063213908</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>184.5278504388888</v>
@@ -1584,7 +1584,7 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>159.5247938709622</v>
       </c>
       <c r="V13" t="n">
         <v>271.1468876098733</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>180.6077930059085</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1609,16 +1609,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>201.932494638444</v>
       </c>
       <c r="U14" t="n">
         <v>254.489886823085</v>
@@ -1669,13 +1669,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>192.2300390553507</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>166.7165542762729</v>
+        <v>136.6868991713728</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1855,16 +1855,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>11.36057336725538</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>14.02439290772429</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>49.63779166869811</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>237.1532516330649</v>
@@ -2064,13 +2064,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="20">
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>279.0374524600057</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>187.232178558179</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2250,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>108.642412017077</v>
+        <v>271.0770354214523</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2329,13 +2329,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>367.6236394854355</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -2478,22 +2478,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>96.94188529208247</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
@@ -2544,7 +2544,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="26">
@@ -2566,13 +2566,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>85.48824505609757</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>108.2642464846189</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>119.8051733265733</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>65.31383608752344</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>406.0233447798626</v>
@@ -2803,16 +2803,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>282.1353944293379</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>49.12308702887178</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>70.01651234184556</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="32">
@@ -3040,10 +3040,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>378.9769832968749</v>
       </c>
       <c r="G32" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>307.7994123985592</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
         <v>254.489886823085</v>
@@ -3091,7 +3091,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>291.3512556275626</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
         <v>396.636963852737</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>277.1752290868141</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>406.0233447798626</v>
@@ -3283,10 +3283,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>84.73179601342665</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
         <v>219.9844192126098</v>
@@ -3331,7 +3331,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>360.2718058255109</v>
       </c>
       <c r="Y35" t="n">
         <v>396.9273063213908</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>42.06634033324911</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="38">
@@ -3511,7 +3511,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>314.0518665500862</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
         <v>416.8201079258493</v>
@@ -3556,13 +3556,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>31.99018014062471</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
         <v>379.9226978561831</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>56.9322492007439</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
@@ -3726,10 +3726,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="41">
@@ -3742,16 +3742,16 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>373.736032213064</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>314.3141139099612</v>
       </c>
       <c r="G41" t="n">
         <v>404.6410012660961</v>
@@ -3760,7 +3760,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>70.36042284486132</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
         <v>279.9701659793371</v>
@@ -3966,7 +3966,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="44">
@@ -3988,16 +3988,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>205.2934183826711</v>
       </c>
       <c r="I44" t="n">
-        <v>59.82422708687632</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -4191,7 +4191,7 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>271.0770354214525</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
@@ -4203,7 +4203,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
   </sheetData>
@@ -4306,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1281.599643065957</v>
+        <v>1552.036533222293</v>
       </c>
       <c r="C2" t="n">
-        <v>1281.599643065957</v>
+        <v>1257.829491074854</v>
       </c>
       <c r="D2" t="n">
-        <v>877.1357131590178</v>
+        <v>853.3655611679142</v>
       </c>
       <c r="E2" t="n">
-        <v>462.7954976759145</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="F2" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="G2" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H2" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I2" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>558.6080202959273</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="L2" t="n">
-        <v>1014.011766457887</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="M2" t="n">
-        <v>1014.011766457887</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="N2" t="n">
-        <v>1014.011766457887</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O2" t="n">
-        <v>1530.854701124212</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P2" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q2" t="n">
         <v>2047.697635790537</v>
@@ -4357,25 +4357,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U2" t="n">
-        <v>1831.193789739612</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V2" t="n">
-        <v>1831.193789739612</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="W2" t="n">
-        <v>1691.820822730447</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="X2" t="n">
-        <v>1691.820822730447</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="Y2" t="n">
-        <v>1691.820822730447</v>
+        <v>1552.036533222293</v>
       </c>
     </row>
     <row r="3">
@@ -4388,7 +4388,7 @@
         <v>720.5959275161366</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D3" t="n">
         <v>469.7036984844747</v>
@@ -4397,37 +4397,37 @@
         <v>349.2108824768027</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593073</v>
       </c>
       <c r="G3" t="n">
         <v>133.260889973646</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936201</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960225</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960225</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K3" t="n">
-        <v>497.571341894901</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L3" t="n">
-        <v>1014.414276561226</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="M3" t="n">
-        <v>1531.257211227552</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N3" t="n">
-        <v>1541.851827451147</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O3" t="n">
-        <v>2058.694762117472</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P3" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q3" t="n">
         <v>2058.694762117472</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1131.098935930739</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C4" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D4" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E4" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F4" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G4" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4518,22 +4518,22 @@
         <v>1384.772214130362</v>
       </c>
       <c r="T4" t="n">
-        <v>1384.772214130362</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U4" t="n">
-        <v>1384.772214130362</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="V4" t="n">
-        <v>1384.772214130362</v>
+        <v>588.5395825927103</v>
       </c>
       <c r="W4" t="n">
-        <v>1384.772214130362</v>
+        <v>504.844646381154</v>
       </c>
       <c r="X4" t="n">
-        <v>1384.772214130362</v>
+        <v>266.5007842408373</v>
       </c>
       <c r="Y4" t="n">
-        <v>1318.798642324783</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1286.674210597145</v>
+        <v>758.0550526929721</v>
       </c>
       <c r="C5" t="n">
-        <v>876.5496199104149</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="D5" t="n">
-        <v>876.5496199104149</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="E5" t="n">
-        <v>462.2094044273116</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="F5" t="n">
-        <v>462.2094044273116</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="G5" t="n">
-        <v>53.48112032014376</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
@@ -4570,22 +4570,22 @@
         <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>295.9505570973564</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L5" t="n">
-        <v>812.7934917636817</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M5" t="n">
-        <v>1014.011766457887</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="N5" t="n">
-        <v>1014.011766457887</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="O5" t="n">
-        <v>1530.854701124212</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="P5" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q5" t="n">
         <v>2047.697635790537</v>
@@ -4594,25 +4594,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="W5" t="n">
-        <v>2088.254281480102</v>
+        <v>1569.212905409372</v>
       </c>
       <c r="X5" t="n">
-        <v>1687.610883649055</v>
+        <v>1569.212905409372</v>
       </c>
       <c r="Y5" t="n">
-        <v>1286.674210597145</v>
+        <v>1168.276232357462</v>
       </c>
     </row>
     <row r="6">
@@ -4646,28 +4646,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>41.76508562960205</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M6" t="n">
-        <v>537.7254774811266</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="N6" t="n">
-        <v>1054.568412147452</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="O6" t="n">
-        <v>1571.411346813777</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="P6" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4749,25 +4749,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1059.950756782464</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U7" t="n">
-        <v>777.1526093285881</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V7" t="n">
-        <v>503.2668642681101</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W7" t="n">
-        <v>224.1971997769844</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X7" t="n">
-        <v>41.76508562960205</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y7" t="n">
         <v>41.76508562960205</v>
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>946.9697231064266</v>
+        <v>1372.215759949112</v>
       </c>
       <c r="C8" t="n">
-        <v>536.8451324196967</v>
+        <v>1372.215759949112</v>
       </c>
       <c r="D8" t="n">
-        <v>536.8451324196967</v>
+        <v>1372.215759949112</v>
       </c>
       <c r="E8" t="n">
-        <v>536.8451324196967</v>
+        <v>957.8755444660092</v>
       </c>
       <c r="F8" t="n">
         <v>536.8451324196967</v>
@@ -4804,28 +4804,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K8" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L8" t="n">
-        <v>558.6080202959273</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M8" t="n">
-        <v>1075.450954962253</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="N8" t="n">
-        <v>1592.293889628578</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="O8" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P8" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q8" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R8" t="n">
         <v>2088.254281480102</v>
@@ -4834,22 +4834,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T8" t="n">
-        <v>1952.973206274203</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U8" t="n">
-        <v>1952.973206274203</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V8" t="n">
-        <v>1748.549793989384</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="W8" t="n">
-        <v>1748.549793989384</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="X8" t="n">
-        <v>1347.906396158337</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="Y8" t="n">
-        <v>946.9697231064266</v>
+        <v>1372.215759949112</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D9" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E9" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G9" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I9" t="n">
         <v>41.76508562960205</v>
@@ -4889,19 +4889,19 @@
         <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>690.384199457534</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="M9" t="n">
-        <v>690.384199457534</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="N9" t="n">
-        <v>1207.227134123859</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O9" t="n">
-        <v>1207.227134123859</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P9" t="n">
-        <v>1708.850297433489</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q9" t="n">
         <v>2058.694762117472</v>
@@ -4919,16 +4919,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X9" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="10">
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>533.263917876656</v>
+        <v>373.6466025934674</v>
       </c>
       <c r="C10" t="n">
-        <v>362.1705454383725</v>
+        <v>373.6466025934674</v>
       </c>
       <c r="D10" t="n">
-        <v>202.6759007612826</v>
+        <v>373.6466025934674</v>
       </c>
       <c r="E10" t="n">
-        <v>41.76508562960205</v>
+        <v>373.6466025934674</v>
       </c>
       <c r="F10" t="n">
-        <v>41.76508562960205</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="G10" t="n">
         <v>41.76508562960205</v>
@@ -4989,25 +4989,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>1571.163982250452</v>
+        <v>1397.099865992991</v>
       </c>
       <c r="T10" t="n">
-        <v>1571.163982250452</v>
+        <v>1397.099865992991</v>
       </c>
       <c r="U10" t="n">
-        <v>1571.163982250452</v>
+        <v>1114.301718539115</v>
       </c>
       <c r="V10" t="n">
-        <v>1463.112849513378</v>
+        <v>840.4159734786374</v>
       </c>
       <c r="W10" t="n">
-        <v>1184.043185022252</v>
+        <v>561.3463089875117</v>
       </c>
       <c r="X10" t="n">
-        <v>945.6993228819357</v>
+        <v>561.3463089875117</v>
       </c>
       <c r="Y10" t="n">
-        <v>720.9636242707004</v>
+        <v>561.3463089875117</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1270.693821706375</v>
+        <v>1151.393135391246</v>
       </c>
       <c r="C11" t="n">
-        <v>860.5692310196448</v>
+        <v>741.2685447045159</v>
       </c>
       <c r="D11" t="n">
-        <v>456.1053011127053</v>
+        <v>549.1472603588413</v>
       </c>
       <c r="E11" t="n">
-        <v>41.76508562960205</v>
+        <v>549.1472603588413</v>
       </c>
       <c r="F11" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="G11" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H11" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I11" t="n">
         <v>41.76508562960205</v>
@@ -5047,46 +5047,46 @@
         <v>812.7934917636817</v>
       </c>
       <c r="L11" t="n">
-        <v>812.7934917636817</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M11" t="n">
-        <v>1329.636426430007</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="N11" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O11" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P11" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q11" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R11" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S11" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T11" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U11" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V11" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="W11" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="X11" t="n">
-        <v>2081.851674422774</v>
+        <v>1552.329808443156</v>
       </c>
       <c r="Y11" t="n">
-        <v>1680.915001370864</v>
+        <v>1151.393135391246</v>
       </c>
     </row>
     <row r="12">
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C12" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D12" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E12" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F12" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G12" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H12" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I12" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J12" t="n">
-        <v>158.3214934345126</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K12" t="n">
-        <v>158.3214934345126</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L12" t="n">
-        <v>675.1644281008379</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="M12" t="n">
-        <v>1192.007362767163</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N12" t="n">
-        <v>1192.007362767163</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O12" t="n">
-        <v>1708.850297433488</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P12" t="n">
-        <v>1708.850297433488</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q12" t="n">
         <v>2058.694762117472</v>
@@ -5156,16 +5156,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V12" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W12" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X12" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y12" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="13">
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.76508562960205</v>
+        <v>206.3962115190108</v>
       </c>
       <c r="C13" t="n">
-        <v>41.76508562960205</v>
+        <v>206.3962115190108</v>
       </c>
       <c r="D13" t="n">
-        <v>41.76508562960205</v>
+        <v>206.3962115190108</v>
       </c>
       <c r="E13" t="n">
-        <v>41.76508562960205</v>
+        <v>206.3962115190108</v>
       </c>
       <c r="F13" t="n">
         <v>41.76508562960205</v>
@@ -5223,28 +5223,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R13" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S13" t="n">
-        <v>1299.499495805762</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T13" t="n">
-        <v>1059.950756782464</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U13" t="n">
-        <v>777.1526093285881</v>
+        <v>984.0873196818497</v>
       </c>
       <c r="V13" t="n">
-        <v>503.2668642681101</v>
+        <v>710.2015746213717</v>
       </c>
       <c r="W13" t="n">
-        <v>224.1971997769844</v>
+        <v>431.1319101302461</v>
       </c>
       <c r="X13" t="n">
-        <v>224.1971997769844</v>
+        <v>431.1319101302461</v>
       </c>
       <c r="Y13" t="n">
-        <v>41.76508562960205</v>
+        <v>206.3962115190108</v>
       </c>
     </row>
     <row r="14">
@@ -5254,46 +5254,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>128.1168483125289</v>
+        <v>1277.384018269584</v>
       </c>
       <c r="C14" t="n">
-        <v>128.1168483125289</v>
+        <v>867.259427582854</v>
       </c>
       <c r="D14" t="n">
-        <v>128.1168483125289</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="E14" t="n">
-        <v>128.1168483125289</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="F14" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G14" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H14" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I14" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J14" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K14" t="n">
-        <v>812.7934917636817</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="L14" t="n">
         <v>1054.568412147452</v>
       </c>
       <c r="M14" t="n">
-        <v>1054.568412147452</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N14" t="n">
-        <v>1054.568412147452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O14" t="n">
-        <v>1571.411346813777</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P14" t="n">
         <v>2088.254281480102</v>
@@ -5305,25 +5305,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S14" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T14" t="n">
-        <v>1730.766722221062</v>
+        <v>1884.282064673593</v>
       </c>
       <c r="U14" t="n">
-        <v>1473.706230480572</v>
+        <v>1627.221572933103</v>
       </c>
       <c r="V14" t="n">
-        <v>1123.868675817053</v>
+        <v>1277.384018269584</v>
       </c>
       <c r="W14" t="n">
-        <v>929.6969191954863</v>
+        <v>1277.384018269584</v>
       </c>
       <c r="X14" t="n">
-        <v>529.0535213644388</v>
+        <v>1277.384018269584</v>
       </c>
       <c r="Y14" t="n">
-        <v>128.1168483125289</v>
+        <v>1277.384018269584</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C15" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D15" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E15" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F15" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G15" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H15" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I15" t="n">
         <v>41.76508562960205</v>
@@ -5360,25 +5360,25 @@
         <v>234.5779431922353</v>
       </c>
       <c r="K15" t="n">
-        <v>234.5779431922353</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L15" t="n">
-        <v>751.4208778585605</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="M15" t="n">
-        <v>751.4208778585605</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="N15" t="n">
-        <v>751.4208778585605</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O15" t="n">
-        <v>1221.566882129794</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P15" t="n">
-        <v>1738.409816796119</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q15" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R15" t="n">
         <v>2088.254281480102</v>
@@ -5393,16 +5393,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V15" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W15" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X15" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y15" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1131.098935930739</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C16" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D16" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E16" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F16" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G16" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H16" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I16" t="n">
         <v>41.76508562960205</v>
@@ -5460,28 +5460,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R16" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S16" t="n">
-        <v>1299.499495805762</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T16" t="n">
-        <v>1299.499495805762</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U16" t="n">
-        <v>1131.098935930739</v>
+        <v>1007.155900186485</v>
       </c>
       <c r="V16" t="n">
-        <v>1131.098935930739</v>
+        <v>733.2701551260075</v>
       </c>
       <c r="W16" t="n">
-        <v>1131.098935930739</v>
+        <v>454.2004906348818</v>
       </c>
       <c r="X16" t="n">
-        <v>1131.098935930739</v>
+        <v>454.2004906348818</v>
       </c>
       <c r="Y16" t="n">
-        <v>1131.098935930739</v>
+        <v>229.4647920236465</v>
       </c>
     </row>
     <row r="17">
@@ -5491,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1678.033101815613</v>
+        <v>1704.493980615271</v>
       </c>
       <c r="C17" t="n">
-        <v>1678.033101815613</v>
+        <v>1704.493980615271</v>
       </c>
       <c r="D17" t="n">
-        <v>1273.569171908673</v>
+        <v>1300.030050708331</v>
       </c>
       <c r="E17" t="n">
-        <v>859.22895642557</v>
+        <v>885.6898352252281</v>
       </c>
       <c r="F17" t="n">
-        <v>847.7536297919787</v>
+        <v>464.6594231789156</v>
       </c>
       <c r="G17" t="n">
-        <v>439.0253456848109</v>
+        <v>55.93113907174779</v>
       </c>
       <c r="H17" t="n">
-        <v>128.1168483125289</v>
+        <v>55.93113907174779</v>
       </c>
       <c r="I17" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J17" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K17" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L17" t="n">
-        <v>812.7934917636817</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M17" t="n">
-        <v>1329.636426430007</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N17" t="n">
-        <v>1329.636426430007</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O17" t="n">
-        <v>1846.479361096332</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P17" t="n">
-        <v>1846.479361096332</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q17" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R17" t="n">
         <v>2088.254281480102</v>
@@ -5554,13 +5554,13 @@
         <v>2088.254281480102</v>
       </c>
       <c r="W17" t="n">
-        <v>2088.254281480102</v>
+        <v>1704.493980615271</v>
       </c>
       <c r="X17" t="n">
-        <v>2088.254281480102</v>
+        <v>1704.493980615271</v>
       </c>
       <c r="Y17" t="n">
-        <v>2088.254281480102</v>
+        <v>1704.493980615271</v>
       </c>
     </row>
     <row r="18">
@@ -5594,22 +5594,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J18" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K18" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L18" t="n">
-        <v>497.5713418949007</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M18" t="n">
-        <v>704.7239474634679</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="N18" t="n">
-        <v>1221.566882129793</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="O18" t="n">
-        <v>1738.409816796118</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="P18" t="n">
         <v>1738.409816796118</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>538.4003990889748</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C19" t="n">
-        <v>367.3070266506913</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D19" t="n">
-        <v>367.3070266506913</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E19" t="n">
-        <v>206.3962115190108</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F19" t="n">
         <v>41.76508562960205</v>
@@ -5700,25 +5700,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S19" t="n">
-        <v>1384.772214130362</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T19" t="n">
-        <v>1145.223475107064</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U19" t="n">
-        <v>862.4253276531883</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V19" t="n">
-        <v>588.5395825927103</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W19" t="n">
-        <v>588.5395825927103</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X19" t="n">
-        <v>588.5395825927103</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y19" t="n">
-        <v>588.5395825927103</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1465.111124375051</v>
+        <v>1158.991725744882</v>
       </c>
       <c r="C20" t="n">
-        <v>1465.111124375051</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="D20" t="n">
-        <v>1060.647194468112</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="E20" t="n">
-        <v>871.5237817830823</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="F20" t="n">
-        <v>450.4933697367699</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G20" t="n">
         <v>41.76508562960205</v>
@@ -5755,13 +5755,13 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K20" t="n">
+        <v>41.76508562960205</v>
+      </c>
+      <c r="L20" t="n">
         <v>537.7254774811266</v>
       </c>
-      <c r="L20" t="n">
+      <c r="M20" t="n">
         <v>1054.568412147452</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1571.411346813777</v>
       </c>
       <c r="N20" t="n">
         <v>1571.411346813777</v>
@@ -5779,25 +5779,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S20" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T20" t="n">
-        <v>1866.047797426961</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U20" t="n">
-        <v>1866.047797426961</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V20" t="n">
-        <v>1866.047797426961</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="W20" t="n">
-        <v>1866.047797426961</v>
+        <v>1569.212905409372</v>
       </c>
       <c r="X20" t="n">
-        <v>1866.047797426961</v>
+        <v>1569.212905409372</v>
       </c>
       <c r="Y20" t="n">
-        <v>1465.111124375051</v>
+        <v>1569.212905409372</v>
       </c>
     </row>
     <row r="21">
@@ -5834,19 +5834,19 @@
         <v>234.5779431922353</v>
       </c>
       <c r="K21" t="n">
-        <v>234.5779431922353</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L21" t="n">
-        <v>751.4208778585605</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M21" t="n">
-        <v>751.4208778585605</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N21" t="n">
-        <v>1268.263812524886</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O21" t="n">
-        <v>1785.106747191211</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P21" t="n">
         <v>2088.254281480102</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1040.344357017661</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C22" t="n">
-        <v>1040.344357017661</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D22" t="n">
-        <v>1040.344357017661</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E22" t="n">
-        <v>1040.344357017661</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F22" t="n">
-        <v>875.7132311282519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G22" t="n">
-        <v>708.4628400537953</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H22" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I22" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J22" t="n">
-        <v>572.9379342644625</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K22" t="n">
-        <v>727.4902619867005</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L22" t="n">
-        <v>987.3873622667611</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M22" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N22" t="n">
-        <v>1557.490201101505</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O22" t="n">
-        <v>1817.050811427979</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P22" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q22" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R22" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S22" t="n">
-        <v>1901.862513360013</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T22" t="n">
-        <v>1662.313774336715</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U22" t="n">
-        <v>1552.573964218455</v>
+        <v>1057.800055932758</v>
       </c>
       <c r="V22" t="n">
-        <v>1278.688219157977</v>
+        <v>783.9143108722797</v>
       </c>
       <c r="W22" t="n">
-        <v>1278.688219157977</v>
+        <v>504.844646381154</v>
       </c>
       <c r="X22" t="n">
-        <v>1040.344357017661</v>
+        <v>266.5007842408373</v>
       </c>
       <c r="Y22" t="n">
-        <v>1040.344357017661</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C23" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D23" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E23" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F23" t="n">
-        <v>501.9719817977906</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G23" t="n">
-        <v>93.2436976906228</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H23" t="n">
         <v>93.2436976906228</v>
@@ -6016,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T23" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U23" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V23" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W23" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X23" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y23" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="24">
@@ -6068,28 +6068,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>754.331869609911</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M24" t="n">
-        <v>1435.775802995229</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N24" t="n">
-        <v>1435.775802995229</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q24" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R24" t="n">
         <v>2139.732893541123</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>833.5645812353407</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C25" t="n">
-        <v>735.6434849807119</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D25" t="n">
-        <v>735.6434849807119</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E25" t="n">
-        <v>574.7326698490315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F25" t="n">
-        <v>410.1015439596227</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G25" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H25" t="n">
         <v>93.2436976906228</v>
@@ -6171,28 +6171,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T25" t="n">
-        <v>1350.978107866783</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U25" t="n">
-        <v>1350.978107866783</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V25" t="n">
-        <v>1350.978107866783</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W25" t="n">
-        <v>1071.908443375657</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X25" t="n">
-        <v>833.5645812353407</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y25" t="n">
-        <v>833.5645812353407</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2128.160977929772</v>
+        <v>2238.282892603803</v>
       </c>
       <c r="C26" t="n">
-        <v>1718.036387243042</v>
+        <v>1828.158301917073</v>
       </c>
       <c r="D26" t="n">
-        <v>1313.572457336103</v>
+        <v>1423.694372010133</v>
       </c>
       <c r="E26" t="n">
-        <v>899.2322418529996</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F26" t="n">
-        <v>899.2322418529996</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G26" t="n">
-        <v>490.5039577458317</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H26" t="n">
         <v>179.5954603735497</v>
@@ -6253,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4552.827059799201</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T26" t="n">
-        <v>4330.62057574606</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U26" t="n">
-        <v>4073.56008400557</v>
+        <v>4183.681998679601</v>
       </c>
       <c r="V26" t="n">
-        <v>3723.722529342051</v>
+        <v>3833.844444016082</v>
       </c>
       <c r="W26" t="n">
-        <v>3339.962228477219</v>
+        <v>3450.08414315125</v>
       </c>
       <c r="X26" t="n">
-        <v>2939.318830646172</v>
+        <v>3049.440745320202</v>
       </c>
       <c r="Y26" t="n">
-        <v>2538.382157594262</v>
+        <v>2648.504072268292</v>
       </c>
     </row>
     <row r="27">
@@ -6314,16 +6314,16 @@
         <v>1210.13812587521</v>
       </c>
       <c r="M27" t="n">
-        <v>2053.115206569777</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N27" t="n">
-        <v>2053.115206569777</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="O27" t="n">
-        <v>2053.115206569777</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P27" t="n">
-        <v>2053.115206569777</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q27" t="n">
         <v>2139.732893541123</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1182.57754799176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C28" t="n">
-        <v>1011.484175553476</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D28" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E28" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F28" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G28" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
@@ -6411,25 +6411,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S28" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T28" t="n">
-        <v>1436.250826191383</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U28" t="n">
-        <v>1436.250826191383</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V28" t="n">
-        <v>1436.250826191383</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W28" t="n">
-        <v>1436.250826191383</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X28" t="n">
-        <v>1436.250826191383</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y28" t="n">
-        <v>1370.277254385804</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2102.237727455811</v>
+        <v>2512.458907120301</v>
       </c>
       <c r="C29" t="n">
-        <v>1692.113136769081</v>
+        <v>2102.334316433571</v>
       </c>
       <c r="D29" t="n">
-        <v>1287.649206862142</v>
+        <v>1697.870386526632</v>
       </c>
       <c r="E29" t="n">
-        <v>873.3089913790386</v>
+        <v>1283.530171043528</v>
       </c>
       <c r="F29" t="n">
-        <v>588.3237444807176</v>
+        <v>862.4997589972158</v>
       </c>
       <c r="G29" t="n">
-        <v>179.5954603735497</v>
+        <v>453.771474890048</v>
       </c>
       <c r="H29" t="n">
-        <v>179.5954603735497</v>
+        <v>142.862977517766</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C30" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D30" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E30" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F30" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G30" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H30" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I30" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K30" t="n">
-        <v>2615.69568868064</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L30" t="n">
-        <v>2765.406248606695</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M30" t="n">
-        <v>3608.383329301262</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N30" t="n">
-        <v>3608.383329301262</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O30" t="n">
-        <v>4312.340419847156</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P30" t="n">
-        <v>4312.340419847156</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q30" t="n">
-        <v>4662.18488453114</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R30" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S30" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T30" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U30" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V30" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W30" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X30" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y30" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C31" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D31" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E31" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F31" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G31" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H31" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I31" t="n">
         <v>93.2436976906228</v>
@@ -6651,22 +6651,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T31" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U31" t="n">
-        <v>1622.642594311473</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V31" t="n">
-        <v>1348.756849250995</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W31" t="n">
-        <v>1348.756849250995</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X31" t="n">
-        <v>1110.412987110678</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y31" t="n">
-        <v>1039.68923727043</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C32" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D32" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E32" t="n">
-        <v>1320.262653899312</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F32" t="n">
-        <v>899.2322418529996</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="G32" t="n">
         <v>490.5039577458317</v>
@@ -6700,10 +6700,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J32" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K32" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L32" t="n">
         <v>1598.180070079655</v>
@@ -6727,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T32" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U32" t="n">
-        <v>4405.12439279065</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V32" t="n">
-        <v>4055.286838127131</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W32" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X32" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y32" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>754.331869609911</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M33" t="n">
-        <v>754.331869609911</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N33" t="n">
-        <v>1085.931338311245</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O33" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P33" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q33" t="n">
         <v>2139.732893541123</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3956.166337121209</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C34" t="n">
-        <v>3785.072964682925</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D34" t="n">
-        <v>3625.578320005835</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E34" t="n">
-        <v>3464.667504874155</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F34" t="n">
-        <v>3300.036378984746</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K34" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L34" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M34" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N34" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O34" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P34" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T34" t="n">
-        <v>4662.18488453114</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U34" t="n">
-        <v>4382.20990565557</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V34" t="n">
-        <v>4382.20990565557</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W34" t="n">
-        <v>4382.20990565557</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X34" t="n">
-        <v>4143.866043515253</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y34" t="n">
-        <v>4143.866043515253</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2237.518802661711</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C35" t="n">
-        <v>1827.394211974981</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D35" t="n">
-        <v>1422.930282068041</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E35" t="n">
-        <v>1008.590066584938</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F35" t="n">
-        <v>587.5596545386256</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G35" t="n">
-        <v>178.8313704314578</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H35" t="n">
-        <v>178.8313704314578</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -6964,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T35" t="n">
-        <v>4439.978400477999</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U35" t="n">
-        <v>4182.917908737509</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V35" t="n">
-        <v>3833.080354073989</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W35" t="n">
-        <v>3449.320053209158</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X35" t="n">
-        <v>3048.67665537811</v>
+        <v>2950.128063027995</v>
       </c>
       <c r="Y35" t="n">
-        <v>2647.7399823262</v>
+        <v>2549.191389976085</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>532.5581915209807</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M36" t="n">
-        <v>532.5581915209807</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N36" t="n">
-        <v>1406.216283632599</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O36" t="n">
-        <v>2110.173374178493</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P36" t="n">
-        <v>2110.173374178493</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q36" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R36" t="n">
         <v>2139.732893541123</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>895.138129657802</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C37" t="n">
-        <v>895.138129657802</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D37" t="n">
-        <v>735.6434849807119</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E37" t="n">
-        <v>574.7326698490315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F37" t="n">
-        <v>410.1015439596227</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G37" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H37" t="n">
         <v>93.2436976906228</v>
@@ -7122,25 +7122,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S37" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T37" t="n">
-        <v>1436.250826191383</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U37" t="n">
-        <v>1436.250826191383</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V37" t="n">
-        <v>1162.365081130905</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W37" t="n">
-        <v>1162.365081130905</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X37" t="n">
-        <v>1162.365081130905</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y37" t="n">
-        <v>937.6293825196698</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2452.075282119331</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C38" t="n">
-        <v>2041.950691432601</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D38" t="n">
-        <v>1637.486761525662</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E38" t="n">
         <v>1320.262653899312</v>
@@ -7204,22 +7204,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T38" t="n">
-        <v>4304.697325272099</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="U38" t="n">
-        <v>4047.636833531609</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V38" t="n">
-        <v>4047.636833531609</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W38" t="n">
-        <v>3663.876532666778</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X38" t="n">
-        <v>3263.23313483573</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y38" t="n">
-        <v>2862.29646178382</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>1210.13812587521</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M39" t="n">
-        <v>1210.13812587521</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N39" t="n">
-        <v>2083.796217986828</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O39" t="n">
-        <v>2083.796217986828</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P39" t="n">
-        <v>2110.173374178493</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q39" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R39" t="n">
         <v>2139.732893541123</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>687.3584049869771</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C40" t="n">
-        <v>687.3584049869771</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D40" t="n">
-        <v>687.3584049869771</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E40" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F40" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G40" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H40" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7356,28 +7356,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S40" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T40" t="n">
-        <v>1297.821136963575</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U40" t="n">
-        <v>1297.821136963575</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V40" t="n">
-        <v>1023.935391903097</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W40" t="n">
-        <v>744.865727411971</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X40" t="n">
-        <v>744.865727411971</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y40" t="n">
-        <v>744.865727411971</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2102.237727455811</v>
+        <v>2359.298219196301</v>
       </c>
       <c r="C41" t="n">
-        <v>1724.726583806251</v>
+        <v>1949.173628509571</v>
       </c>
       <c r="D41" t="n">
-        <v>1320.262653899312</v>
+        <v>1544.709698602632</v>
       </c>
       <c r="E41" t="n">
-        <v>1320.262653899312</v>
+        <v>1130.369483119528</v>
       </c>
       <c r="F41" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G41" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H41" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I41" t="n">
         <v>93.2436976906228</v>
@@ -7444,19 +7444,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U41" t="n">
-        <v>4047.636833531609</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V41" t="n">
-        <v>3697.79927886809</v>
+        <v>3954.85977060858</v>
       </c>
       <c r="W41" t="n">
-        <v>3314.038978003258</v>
+        <v>3571.099469743748</v>
       </c>
       <c r="X41" t="n">
-        <v>2913.395580172211</v>
+        <v>3170.456071912701</v>
       </c>
       <c r="Y41" t="n">
-        <v>2512.458907120301</v>
+        <v>2769.519398860791</v>
       </c>
     </row>
     <row r="42">
@@ -7496,22 +7496,22 @@
         <v>741.8628115185547</v>
       </c>
       <c r="L42" t="n">
-        <v>741.8628115185547</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M42" t="n">
-        <v>886.6708173828915</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N42" t="n">
-        <v>1760.328909494509</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O42" t="n">
-        <v>1760.328909494509</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P42" t="n">
-        <v>1760.328909494509</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q42" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R42" t="n">
         <v>2139.732893541123</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3292.280632587379</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C43" t="n">
-        <v>3292.280632587379</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D43" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E43" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F43" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G43" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H43" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I43" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J43" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K43" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L43" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M43" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N43" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O43" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P43" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q43" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S43" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T43" t="n">
-        <v>4662.18488453114</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U43" t="n">
-        <v>4379.386737077264</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V43" t="n">
-        <v>4105.500992016786</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W43" t="n">
-        <v>3826.43132752566</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X43" t="n">
-        <v>3588.087465385343</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y43" t="n">
-        <v>3363.351766774108</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2102.237727455811</v>
+        <v>2359.298219196301</v>
       </c>
       <c r="C44" t="n">
-        <v>1692.113136769081</v>
+        <v>1949.173628509571</v>
       </c>
       <c r="D44" t="n">
-        <v>1287.649206862142</v>
+        <v>1544.709698602632</v>
       </c>
       <c r="E44" t="n">
-        <v>873.3089913790386</v>
+        <v>1130.369483119528</v>
       </c>
       <c r="F44" t="n">
-        <v>873.3089913790386</v>
+        <v>709.339071073216</v>
       </c>
       <c r="G44" t="n">
-        <v>464.5807072718708</v>
+        <v>300.6107869660482</v>
       </c>
       <c r="H44" t="n">
-        <v>153.6722098995888</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I44" t="n">
         <v>93.2436976906228</v>
@@ -7681,19 +7681,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U44" t="n">
-        <v>4047.636833531609</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V44" t="n">
-        <v>3697.79927886809</v>
+        <v>3954.85977060858</v>
       </c>
       <c r="W44" t="n">
-        <v>3314.038978003258</v>
+        <v>3571.099469743748</v>
       </c>
       <c r="X44" t="n">
-        <v>2913.395580172211</v>
+        <v>3170.456071912701</v>
       </c>
       <c r="Y44" t="n">
-        <v>2512.458907120301</v>
+        <v>2769.519398860791</v>
       </c>
     </row>
     <row r="45">
@@ -7727,28 +7727,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K45" t="n">
-        <v>741.8628115185547</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L45" t="n">
-        <v>1198.623017005979</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M45" t="n">
-        <v>1198.623017005979</v>
+        <v>2053.115206569777</v>
       </c>
       <c r="N45" t="n">
-        <v>1198.623017005979</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O45" t="n">
-        <v>1198.623017005979</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P45" t="n">
-        <v>1760.328909494509</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q45" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R45" t="n">
         <v>2139.732893541123</v>
@@ -7839,16 +7839,16 @@
         <v>1383.093855288175</v>
       </c>
       <c r="U46" t="n">
-        <v>1109.278667993779</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V46" t="n">
-        <v>835.3929229333004</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W46" t="n">
-        <v>556.3232584421747</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X46" t="n">
-        <v>317.9793963018581</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y46" t="n">
         <v>93.2436976906228</v>
@@ -7978,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>611.1999600432426</v>
+        <v>490.0456851936601</v>
       </c>
       <c r="L2" t="n">
-        <v>555.4891820648243</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M2" t="n">
         <v>93.29022445704545</v>
@@ -7993,13 +7993,13 @@
         <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
         <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
         <v>128.2784515920617</v>
@@ -8057,28 +8057,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>578.1780941808746</v>
+        <v>562.8045877599699</v>
       </c>
       <c r="M3" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>63.89502594283636</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
         <v>88.85829947169823</v>
@@ -8218,25 +8218,25 @@
         <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
         <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
-        <v>296.5410069764446</v>
+        <v>494.1995199774884</v>
       </c>
       <c r="N5" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
         <v>128.2784515920617</v>
@@ -8294,31 +8294,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>558.5343765177352</v>
+        <v>564.2543476875377</v>
       </c>
       <c r="N6" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,22 +8452,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L8" t="n">
         <v>617.5489684328704</v>
       </c>
       <c r="M8" t="n">
-        <v>615.3537948270711</v>
+        <v>296.5410069764447</v>
       </c>
       <c r="N8" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O8" t="n">
-        <v>594.1598684051008</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P8" t="n">
         <v>93.64936328088416</v>
@@ -8476,7 +8476,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8537,19 +8537,19 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>56.11452381084905</v>
+        <v>562.8045877599694</v>
       </c>
       <c r="M9" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
         <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>560.9496989519245</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q9" t="n">
         <v>410.0708656603775</v>
@@ -8695,13 +8695,13 @@
         <v>611.1999600432426</v>
       </c>
       <c r="L11" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M11" t="n">
         <v>615.3537948270711</v>
       </c>
       <c r="N11" t="n">
-        <v>493.8215862770622</v>
+        <v>337.1293820533569</v>
       </c>
       <c r="O11" t="n">
         <v>93.18977562578313</v>
@@ -8710,10 +8710,10 @@
         <v>93.64936328088416</v>
       </c>
       <c r="Q11" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,25 +8768,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>169.1029840574854</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>578.1780941808746</v>
+        <v>562.8045877599699</v>
       </c>
       <c r="M12" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q12" t="n">
         <v>410.0708656603775</v>
@@ -8926,25 +8926,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K14" t="n">
-        <v>611.1999600432426</v>
+        <v>590.1064824525349</v>
       </c>
       <c r="L14" t="n">
-        <v>339.7024893595824</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M14" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N14" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O14" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P14" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q14" t="n">
         <v>90.03380439915205</v>
@@ -9008,10 +9008,10 @@
         <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>578.1780941808746</v>
+        <v>562.8045877599694</v>
       </c>
       <c r="M15" t="n">
         <v>57.56428373841742</v>
@@ -9020,7 +9020,7 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>532.6464328093264</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
         <v>576.3232053728293</v>
@@ -9029,7 +9029,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K17" t="n">
         <v>89.13638967321712</v>
@@ -9175,19 +9175,19 @@
         <v>615.3537948270711</v>
       </c>
       <c r="N17" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O17" t="n">
-        <v>615.2533459958087</v>
+        <v>594.1598684051008</v>
       </c>
       <c r="P17" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q17" t="n">
-        <v>293.2845869185513</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,25 +9242,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M18" t="n">
-        <v>266.8093398682832</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N18" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>68.74422894819149</v>
       </c>
       <c r="Q18" t="n">
         <v>410.0708656603775</v>
@@ -9403,16 +9403,16 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K20" t="n">
-        <v>590.1064824525349</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L20" t="n">
-        <v>617.5489684328704</v>
+        <v>596.4554908421626</v>
       </c>
       <c r="M20" t="n">
         <v>615.3537948270711</v>
       </c>
       <c r="N20" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O20" t="n">
         <v>615.2533459958087</v>
@@ -9482,22 +9482,22 @@
         <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
         <v>578.1780941808746</v>
       </c>
       <c r="M21" t="n">
-        <v>57.56428373841742</v>
+        <v>425.427124839344</v>
       </c>
       <c r="N21" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
         <v>579.8150493700256</v>
       </c>
       <c r="P21" t="n">
-        <v>360.4692655976428</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q21" t="n">
         <v>56.69261850483872</v>
@@ -9716,31 +9716,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M24" t="n">
-        <v>745.8914891781321</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M26" t="n">
-        <v>877.4504173780092</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N26" t="n">
         <v>853.701196452193</v>
@@ -9962,19 +9962,19 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>57.751479</v>
+        <v>75.97815626606008</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>144.1852316072087</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
         <v>59.00019910540541</v>
@@ -10132,10 +10132,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q29" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R29" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,28 +10193,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>207.3373116149458</v>
+        <v>712.2489309321196</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K32" t="n">
         <v>632.7318453389136</v>
@@ -10427,28 +10427,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M33" t="n">
-        <v>57.56428373841742</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N33" t="n">
-        <v>388.1423516779259</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q33" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R33" t="n">
         <v>59.00019910540541</v>
@@ -10664,31 +10664,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>499.8665377809075</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M36" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10840,13 +10840,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P38" t="n">
-        <v>628.1510783507342</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q38" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,31 +10901,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>723.8803540323523</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M39" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
         <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>80.90322711559679</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11071,7 +11071,7 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N41" t="n">
-        <v>853.701196452193</v>
+        <v>853.7011964521931</v>
       </c>
       <c r="O41" t="n">
         <v>743.321953824879</v>
@@ -11080,7 +11080,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
         <v>128.2784515920617</v>
@@ -11144,25 +11144,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M42" t="n">
-        <v>203.834996732697</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
         <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11308,7 +11308,7 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
-        <v>853.7011964521931</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
         <v>743.321953824879</v>
@@ -11375,31 +11375,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>517.4884687476416</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N45" t="n">
-        <v>53.19339339374999</v>
+        <v>140.68600649612</v>
       </c>
       <c r="O45" t="n">
         <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R45" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>114.7583730538974</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22558,16 +22558,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>241.9434605171091</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22704,28 +22704,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22758,22 +22758,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>193.4209809967736</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>157.1745055375997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22783,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>90.1839348417829</v>
       </c>
       <c r="D5" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>296.2005380549229</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,7 +22834,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
@@ -22846,10 +22846,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22989,10 +22989,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23007,10 +23007,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>55.35263051300493</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="8">
@@ -23023,16 +23023,16 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -23074,22 +23074,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>143.9600009549133</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>296.4517404952459</v>
       </c>
     </row>
     <row r="9">
@@ -23181,19 +23181,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>148.1113806425979</v>
@@ -23229,25 +23229,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>12.20437534400276</v>
       </c>
       <c r="T10" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>164.1762662001701</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -23257,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>210.2192191056523</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>404.6410012660961</v>
@@ -23278,7 +23278,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>219.9844192126098</v>
@@ -23323,7 +23323,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>390.2983828659821</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23427,7 +23427,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.577887163712</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>120.4453721083748</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>41.88054861921441</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23497,16 +23497,16 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>404.6410012660961</v>
@@ -23515,7 +23515,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>18.05192457416578</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23557,13 +23557,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>187.6926588008324</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>113.2536117030641</v>
+        <v>143.2832668079643</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
         <v>406.0233447798626</v>
@@ -23743,16 +23743,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>405.4595345585939</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>71.46385214837328</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23794,7 +23794,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>136.1849176614058</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
         <v>165.577887163712</v>
@@ -23940,7 +23940,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="20">
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>126.9858923198568</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>222.9646347700933</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
         <v>307.7994123985592</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
         <v>254.489886823085</v>
@@ -24031,13 +24031,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -24138,13 +24138,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
         <v>115.1825854367171</v>
@@ -24177,25 +24177,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>171.3277539622601</v>
+        <v>8.893130557884774</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24217,13 +24217,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>85.48824505609757</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24366,22 +24366,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>72.44055342181818</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
         <v>115.1825854367171</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="26">
@@ -24454,13 +24454,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>25.66401796922122</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>134.6847134965117</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>157.1745055375995</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24691,16 +24691,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>134.6847134965114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>36.36515802722579</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
         <v>169.3824387139007</v>
@@ -24846,19 +24846,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,22 +24891,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>152.4718292832774</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="32">
@@ -24928,10 +24928,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>37.84312462897441</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24979,7 +24979,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>88.57144222862053</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
         <v>148.1113806425979</v>
@@ -25128,22 +25128,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>2.794936892522969</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25171,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.7564490426709227</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25219,7 +25219,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>36.36515802722613</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>143.7563689968548</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
         <v>115.1825854367171</v>
@@ -25362,25 +25362,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="38">
@@ -25399,7 +25399,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>96.14494677818607</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25444,13 +25444,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>187.994239071985</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>128.89046012936</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
@@ -25557,19 +25557,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
         <v>184.5278504388888</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="41">
@@ -25630,16 +25630,16 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>32.28731256679851</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>102.5059940158881</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25684,7 +25684,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>115.4622864852426</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
         <v>159.3017069803637</v>
@@ -25839,7 +25839,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="44">
@@ -25876,16 +25876,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>102.5059940158881</v>
       </c>
       <c r="I44" t="n">
-        <v>25.66401796922125</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25921,7 +25921,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>8.893130557884547</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>533156.9751288755</v>
+        <v>533156.9751288753</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>533156.9751288755</v>
+        <v>533156.9751288753</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>533156.9751288753</v>
+        <v>533156.9751288755</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>533156.9751288753</v>
+        <v>533156.9751288755</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>533156.9751288755</v>
+        <v>533156.9751288753</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>533156.9751288756</v>
+        <v>533156.9751288753</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>533156.9751288756</v>
+        <v>533156.9751288753</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>811750.7063887561</v>
+        <v>811750.7063887563</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>811750.7063887561</v>
+        <v>811750.7063887562</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>811750.7063887562</v>
+        <v>811750.7063887563</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>811750.7063887562</v>
+        <v>811750.7063887563</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>811750.7063887559</v>
+        <v>811750.7063887562</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>811750.7063887562</v>
+        <v>811750.7063887563</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>811750.7063887563</v>
+        <v>811750.7063887562</v>
       </c>
     </row>
   </sheetData>
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>161720.1620581895</v>
+        <v>161720.1620581894</v>
       </c>
       <c r="C2" t="n">
-        <v>161720.1620581895</v>
+        <v>161720.1620581894</v>
       </c>
       <c r="D2" t="n">
-        <v>161720.1620581895</v>
+        <v>161720.1620581894</v>
       </c>
       <c r="E2" t="n">
         <v>161720.1620581895</v>
       </c>
       <c r="F2" t="n">
-        <v>161720.1620581895</v>
+        <v>161720.1620581894</v>
       </c>
       <c r="G2" t="n">
         <v>161720.1620581895</v>
       </c>
       <c r="H2" t="n">
-        <v>161720.1620581894</v>
+        <v>161720.1620581895</v>
       </c>
       <c r="I2" t="n">
         <v>246201.3674048298</v>
       </c>
       <c r="J2" t="n">
-        <v>246201.3674048297</v>
+        <v>246201.3674048298</v>
       </c>
       <c r="K2" t="n">
-        <v>246201.3674048297</v>
+        <v>246201.3674048298</v>
       </c>
       <c r="L2" t="n">
         <v>246201.3674048298</v>
@@ -26349,13 +26349,13 @@
         <v>246201.3674048297</v>
       </c>
       <c r="N2" t="n">
-        <v>246201.3674048297</v>
+        <v>246201.3674048298</v>
       </c>
       <c r="O2" t="n">
         <v>246201.3674048297</v>
       </c>
       <c r="P2" t="n">
-        <v>246201.3674048297</v>
+        <v>246201.3674048298</v>
       </c>
     </row>
     <row r="3">
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>29404.49246814041</v>
+        <v>29404.49246814042</v>
       </c>
       <c r="C4" t="n">
         <v>29404.49246814042</v>
@@ -26432,7 +26432,7 @@
         <v>29404.49246814042</v>
       </c>
       <c r="G4" t="n">
-        <v>29404.49246814041</v>
+        <v>29404.49246814042</v>
       </c>
       <c r="H4" t="n">
         <v>29404.49246814042</v>
@@ -26441,13 +26441,13 @@
         <v>44919.86535090264</v>
       </c>
       <c r="J4" t="n">
+        <v>44919.86535090263</v>
+      </c>
+      <c r="K4" t="n">
         <v>44919.86535090264</v>
       </c>
-      <c r="K4" t="n">
-        <v>44919.86535090263</v>
-      </c>
       <c r="L4" t="n">
-        <v>44919.86535090264</v>
+        <v>44919.86535090265</v>
       </c>
       <c r="M4" t="n">
         <v>44919.86535090264</v>
@@ -26459,7 +26459,7 @@
         <v>44919.86535090264</v>
       </c>
       <c r="P4" t="n">
-        <v>44919.86535090263</v>
+        <v>44919.86535090265</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-108008.9053815625</v>
+        <v>-108686.4342409567</v>
       </c>
       <c r="C6" t="n">
-        <v>66946.6045115515</v>
+        <v>66269.07565215742</v>
       </c>
       <c r="D6" t="n">
-        <v>66946.60451155156</v>
+        <v>66269.07565215742</v>
       </c>
       <c r="E6" t="n">
-        <v>100574.2045115515</v>
+        <v>99896.67565215747</v>
       </c>
       <c r="F6" t="n">
-        <v>100574.2045115515</v>
+        <v>99896.67565215741</v>
       </c>
       <c r="G6" t="n">
-        <v>100574.2045115515</v>
+        <v>99896.6756521575</v>
       </c>
       <c r="H6" t="n">
-        <v>100574.2045115515</v>
+        <v>99896.67565215744</v>
       </c>
       <c r="I6" t="n">
-        <v>-40699.25816442986</v>
+        <v>-40879.83875707901</v>
       </c>
       <c r="J6" t="n">
-        <v>-6178.508996841199</v>
+        <v>-6359.089589490234</v>
       </c>
       <c r="K6" t="n">
-        <v>130416.2918090538</v>
+        <v>130235.7112164047</v>
       </c>
       <c r="L6" t="n">
-        <v>130416.2918090538</v>
+        <v>130235.7112164047</v>
       </c>
       <c r="M6" t="n">
-        <v>130416.2918090538</v>
+        <v>130235.7112164047</v>
       </c>
       <c r="N6" t="n">
-        <v>130416.2918090537</v>
+        <v>130235.7112164048</v>
       </c>
       <c r="O6" t="n">
-        <v>130416.2918090538</v>
+        <v>130235.7112164047</v>
       </c>
       <c r="P6" t="n">
-        <v>130416.2918090538</v>
+        <v>130235.7112164047</v>
       </c>
     </row>
   </sheetData>
@@ -34698,14 +34698,14 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
+        <v>400.909295520443</v>
+      </c>
+      <c r="L2" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L2" t="n">
-        <v>460.0037840019794</v>
-      </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
@@ -34713,13 +34713,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
         <v>40.9663087773382</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
+        <v>506.6900639491208</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M3" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="N3" t="n">
-        <v>10.70163254908636</v>
-      </c>
-      <c r="O3" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
         <v>29.85810036629282</v>
@@ -34938,25 +34938,25 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M5" t="n">
-        <v>203.2507825193992</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
         <v>40.9663087773382</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
-        <v>500.9700927793178</v>
+        <v>506.6900639491203</v>
       </c>
       <c r="N6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,23 +35172,23 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L8" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M8" t="n">
+        <v>203.2507825193993</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N8" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O8" t="n">
-        <v>500.9700927793177</v>
-      </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
@@ -35196,7 +35196,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35257,19 +35257,19 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>506.6900639491204</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>506.6900639491207</v>
       </c>
       <c r="Q9" t="n">
         <v>353.3782471555388</v>
@@ -35415,13 +35415,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M11" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N11" t="n">
-        <v>400.9092955204429</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -35430,10 +35430,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>117.7337452574854</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
+        <v>506.6900639491208</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="M12" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>353.3782471555388</v>
@@ -35646,25 +35646,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
+        <v>500.9700927793178</v>
+      </c>
+      <c r="L14" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L14" t="n">
-        <v>244.2170912967376</v>
-      </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O14" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,10 +35728,10 @@
         <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>522.0635703700256</v>
+        <v>506.6900639491204</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35740,7 +35740,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>474.8949538093264</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>522.0635703700256</v>
@@ -35749,7 +35749,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -35895,19 +35895,19 @@
         <v>522.0635703700256</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O17" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>203.2507825193993</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M18" t="n">
-        <v>209.2450561298658</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N18" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>14.48459394538775</v>
       </c>
       <c r="Q18" t="n">
         <v>353.3782471555388</v>
@@ -36123,16 +36123,16 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
         <v>500.9700927793178</v>
-      </c>
-      <c r="L20" t="n">
-        <v>522.0635703700256</v>
       </c>
       <c r="M20" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O20" t="n">
         <v>522.0635703700256</v>
@@ -36202,22 +36202,22 @@
         <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>367.8628411009266</v>
       </c>
       <c r="N21" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P21" t="n">
-        <v>306.2096305948391</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M24" t="n">
-        <v>688.3272054397147</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36603,7 +36603,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M26" t="n">
-        <v>784.1601929209637</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N26" t="n">
         <v>760.7889056955737</v>
@@ -36682,19 +36682,19 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>87.49261310237</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36852,10 +36852,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q29" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R29" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,28 +36913,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>151.2227878040968</v>
+        <v>656.1344071212706</v>
       </c>
       <c r="M30" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K32" t="n">
         <v>543.5954556656965</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N33" t="n">
-        <v>334.9489582841759</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>443.7520139700585</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37560,13 +37560,13 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P38" t="n">
-        <v>534.5017150698501</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q38" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>667.7658302215033</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>26.64359211279304</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37791,7 +37791,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N41" t="n">
-        <v>760.7889056955737</v>
+        <v>760.7889056955738</v>
       </c>
       <c r="O41" t="n">
         <v>650.1321781990958</v>
@@ -37800,7 +37800,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
         <v>40.9663087773382</v>
@@ -37864,25 +37864,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M42" t="n">
-        <v>146.2707129942796</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38028,7 +38028,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
-        <v>760.7889056955738</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
         <v>650.1321781990958</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>461.3739449367926</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>87.49261310237</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
